--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62DE61-EFEB-4522-868D-FAA3BF820CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335C7D3-251B-461A-908B-05BE9FBCE69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="15" windowWidth="33255" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,19 +1261,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84:E98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,16 +1280,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,16 +1297,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,16 +1314,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,16 +1331,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="C4" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,16 +1348,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="C5" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,16 +1365,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="C6" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1382,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="C7" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,16 +1399,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="C8" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1416,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="C9" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,16 +1433,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="C10" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,16 +1450,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="C11" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,16 +1467,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="C12" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,16 +1484,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="C13" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,16 +1501,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="C14" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,16 +1518,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="C15" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,16 +1535,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="C16" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,16 +1552,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="C17" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,16 +1569,16 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="C18" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,16 +1586,16 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="C19" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,16 +1603,16 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="C20" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,16 +1620,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="C21" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,16 +1637,16 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="C22" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,16 +1654,16 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="C23" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,16 +1671,16 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="C24" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,16 +1688,16 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,16 +1705,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="C26" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,16 +1722,16 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,16 +1739,16 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="C28" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,16 +1756,16 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="C29" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,16 +1773,16 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="C30" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,16 +1790,16 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="C31" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,16 +1807,16 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="C32" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,16 +1824,16 @@
         <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="C33" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,16 +1841,16 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,16 +1858,16 @@
         <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="C35" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,16 +1875,16 @@
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="C36" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,16 +1892,16 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="C37" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,16 +1909,16 @@
         <v>65</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,16 +1926,16 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,16 +1943,16 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,16 +1960,16 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="C41" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,16 +1977,16 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="C42" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,16 +1994,16 @@
         <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+      <c r="C43" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,16 +2011,16 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+      <c r="C44" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2029,16 +2028,16 @@
         <v>72</v>
       </c>
       <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,16 +2045,16 @@
         <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="C46" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,16 +2062,16 @@
         <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="C47" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,289 +2079,289 @@
         <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="1">
-        <v>44601</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
+      <c r="C64" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,16 +2369,16 @@
         <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
+      <c r="C65" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,16 +2386,16 @@
         <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
+      <c r="C66" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,16 +2403,16 @@
         <v>131</v>
       </c>
       <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
         <v>99</v>
-      </c>
-      <c r="C67" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2421,16 +2420,16 @@
         <v>132</v>
       </c>
       <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
         <v>99</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,16 +2437,16 @@
         <v>133</v>
       </c>
       <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
         <v>99</v>
-      </c>
-      <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,16 +2454,16 @@
         <v>140</v>
       </c>
       <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
         <v>99</v>
-      </c>
-      <c r="C70" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2472,16 +2471,16 @@
         <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
+      <c r="C71" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,16 +2488,16 @@
         <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" t="s">
         <v>146</v>
       </c>
-      <c r="D72" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
+      <c r="C72" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,16 +2505,16 @@
         <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
+      <c r="C73" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,16 +2522,16 @@
         <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
+      <c r="C74" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,16 +2539,16 @@
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
+      <c r="C75" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,16 +2556,16 @@
         <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
+      <c r="C76" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,16 +2573,16 @@
         <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
+      <c r="C77" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,16 +2590,16 @@
         <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
+      <c r="C78" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,16 +2607,16 @@
         <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" t="s">
         <v>165</v>
       </c>
-      <c r="D79" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
+      <c r="C79" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,16 +2624,16 @@
         <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
+      <c r="C80" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,16 +2641,16 @@
         <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
+      <c r="C81" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,16 +2658,16 @@
         <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
+      <c r="C82" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,16 +2675,16 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
+      <c r="C83" s="1">
+        <v>44608</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,16 +2692,16 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="1">
+      <c r="C84" s="1">
         <v>44615</v>
       </c>
-      <c r="E84">
+      <c r="D84">
         <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,16 +2709,16 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="1">
+      <c r="C85" s="1">
         <v>44615</v>
       </c>
-      <c r="E85">
+      <c r="D85">
         <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,16 +2726,16 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="1">
+      <c r="C86" s="1">
         <v>44615</v>
       </c>
-      <c r="E86">
+      <c r="D86">
         <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,16 +2743,16 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" t="s">
         <v>186</v>
       </c>
-      <c r="D87" s="1">
+      <c r="C87" s="1">
         <v>44615</v>
       </c>
-      <c r="E87">
+      <c r="D87">
         <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2761,16 +2760,16 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="1">
+      <c r="C88" s="1">
         <v>44615</v>
       </c>
-      <c r="E88">
+      <c r="D88">
         <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,16 +2777,16 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="1">
+      <c r="C89" s="1">
         <v>44615</v>
       </c>
-      <c r="E89">
+      <c r="D89">
         <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,16 +2794,16 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="1">
+      <c r="C90" s="1">
         <v>44615</v>
       </c>
-      <c r="E90">
+      <c r="D90">
         <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,16 +2811,16 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="1">
+      <c r="C91" s="1">
         <v>44615</v>
       </c>
-      <c r="E91">
+      <c r="D91">
         <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2829,16 +2828,16 @@
         <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" t="s">
         <v>188</v>
       </c>
-      <c r="D92" s="1">
+      <c r="C92" s="1">
         <v>44615</v>
       </c>
-      <c r="E92">
+      <c r="D92">
         <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2846,16 +2845,16 @@
         <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="1">
+      <c r="C93" s="1">
         <v>44615</v>
       </c>
-      <c r="E93">
+      <c r="D93">
         <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,16 +2862,16 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="1">
+      <c r="C94" s="1">
         <v>44615</v>
       </c>
-      <c r="E94">
+      <c r="D94">
         <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,16 +2879,16 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="1">
+      <c r="C95" s="1">
         <v>44615</v>
       </c>
-      <c r="E95">
+      <c r="D95">
         <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,16 +2896,16 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="1">
+      <c r="C96" s="1">
         <v>44615</v>
       </c>
-      <c r="E96">
+      <c r="D96">
         <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,16 +2913,16 @@
         <v>193</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="1">
+      <c r="C97" s="1">
         <v>44615</v>
       </c>
-      <c r="E97">
+      <c r="D97">
         <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,16 +2930,16 @@
         <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="1">
+      <c r="C98" s="1">
         <v>44615</v>
       </c>
-      <c r="E98">
+      <c r="D98">
         <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335C7D3-251B-461A-908B-05BE9FBCE69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F254159-E3E7-408F-BB51-8CC804905DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="15" windowWidth="33255" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="331">
   <si>
     <t>Lesson date</t>
   </si>
@@ -938,12 +938,502 @@
   <si>
     <t>Lesson number</t>
   </si>
+  <si>
+    <t>to do business</t>
+  </si>
+  <si>
+    <t>um Geschafte zu machen / fur ihre Geschafte</t>
+  </si>
+  <si>
+    <t>bewilligen / genehmigen</t>
+  </si>
+  <si>
+    <t>die Genehmigung / die Genehmigungen</t>
+  </si>
+  <si>
+    <t>approval(s)</t>
+  </si>
+  <si>
+    <t>die Zahlung</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>moralische</t>
+  </si>
+  <si>
+    <t>moral</t>
+  </si>
+  <si>
+    <t>weil eine Arbeit gemacht worden ist</t>
+  </si>
+  <si>
+    <t>since a job has been done</t>
+  </si>
+  <si>
+    <t>entlassen</t>
+  </si>
+  <si>
+    <t>to let go (employee)</t>
+  </si>
+  <si>
+    <t>notice (to give / receive)</t>
+  </si>
+  <si>
+    <r>
+      <t>die K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndigung (schreiben / bekommen)</t>
+    </r>
+  </si>
+  <si>
+    <t>nach Brasilien (fliegen / fliehen)</t>
+  </si>
+  <si>
+    <t>to flee / to fly to Brasil</t>
+  </si>
+  <si>
+    <t>sehr detailliert (beschreiben)</t>
+  </si>
+  <si>
+    <r>
+      <t>alle Details (ber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ücksichtigen)</t>
+    </r>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>mere mortal</t>
+  </si>
+  <si>
+    <t>to describe in detail</t>
+  </si>
+  <si>
+    <t>to check every detail</t>
+  </si>
+  <si>
+    <t>der Mensch = der Normalsterbliche</t>
+  </si>
+  <si>
+    <r>
+      <t>wenn der Kollege das gesammelte Geld f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ür sich behält</t>
+    </r>
+  </si>
+  <si>
+    <t>keeps the money to himself / herself</t>
+  </si>
+  <si>
+    <r>
+      <t>fragw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ürdig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / fraglich</t>
+    </r>
+  </si>
+  <si>
+    <t>das Beispiel</t>
+  </si>
+  <si>
+    <t>stattfinden</t>
+  </si>
+  <si>
+    <r>
+      <t>ausl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ösen / bewirken</t>
+    </r>
+  </si>
+  <si>
+    <t>konkurrenzfähig</t>
+  </si>
+  <si>
+    <t>questionable</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>to take place</t>
+  </si>
+  <si>
+    <t>to trigger / create / foster</t>
+  </si>
+  <si>
+    <t>competitive</t>
+  </si>
+  <si>
+    <r>
+      <t>ich hatte viel zu tun / ich war besch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftigt</t>
+    </r>
+  </si>
+  <si>
+    <t>I  was busy</t>
+  </si>
+  <si>
+    <t>…wenn man eine neue Arbeit anfängt</t>
+  </si>
+  <si>
+    <t>Er hat sich einen Monat eingearbeitet</t>
+  </si>
+  <si>
+    <t>der Monat</t>
+  </si>
+  <si>
+    <t>sich einarbeiten</t>
+  </si>
+  <si>
+    <t>to start a job</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>he started a month ago</t>
+  </si>
+  <si>
+    <t>…when someone starts a new position</t>
+  </si>
+  <si>
+    <t>Regeln muss man umsetzen / realisieren</t>
+  </si>
+  <si>
+    <t>der Wettbewerb</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>das Ziel</t>
+  </si>
+  <si>
+    <t>the goal</t>
+  </si>
+  <si>
+    <r>
+      <t>ein Land kann seine eigenen Firmen favorisieren / bevorzugen / stärker f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdern</t>
+    </r>
+  </si>
+  <si>
+    <t>meine Bank ist ein gutes Beispiel</t>
+  </si>
+  <si>
+    <t>leider gab es viele Fehlinvestitionen in dem Bereich</t>
+  </si>
+  <si>
+    <t>vor drei bis vier Jahren</t>
+  </si>
+  <si>
+    <t>die Bank brauchte Geld aus dem Bundesland Niedersachsen</t>
+  </si>
+  <si>
+    <t>bankrottgehen</t>
+  </si>
+  <si>
+    <t>mit einem Plan herauskommen</t>
+  </si>
+  <si>
+    <r>
+      <t>Wir m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssen sicherstellen, dass mit der Hilfe vom Staat kein ungesunder Wettbewerb ausgel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st wird.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>der Plan ist noch nicht voll umgesetzt/erf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>llt</t>
+    </r>
+  </si>
+  <si>
+    <t>Ich wurde eingestellt, um zu helfen, dass dieser Plan umgesetzt wird.</t>
+  </si>
+  <si>
+    <r>
+      <t>deshalb…die Projekte, mit denen ich much besch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftige</t>
+    </r>
+  </si>
+  <si>
+    <t>nicht-wettbewerbsfähige Bereiche</t>
+  </si>
+  <si>
+    <r>
+      <t>Dass die Hilfe, die den Wettbewerb nicht verhindert / st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt</t>
+    </r>
+  </si>
+  <si>
+    <t>eine Woche ist arbeitsreich</t>
+  </si>
+  <si>
+    <t>one must set rules in place</t>
+  </si>
+  <si>
+    <t>sicherstellen</t>
+  </si>
+  <si>
+    <t>verhindern</t>
+  </si>
+  <si>
+    <t>konkurrieren</t>
+  </si>
+  <si>
+    <t>to compete</t>
+  </si>
+  <si>
+    <t>a week is busy</t>
+  </si>
+  <si>
+    <t>my bank is a good example</t>
+  </si>
+  <si>
+    <t>unfortunately there were many bad investments in the sector</t>
+  </si>
+  <si>
+    <t>3-4 years ago</t>
+  </si>
+  <si>
+    <t>the bank needed money from the Lower Saxony government</t>
+  </si>
+  <si>
+    <t>to go bankrupt</t>
+  </si>
+  <si>
+    <t>to ensure</t>
+  </si>
+  <si>
+    <t>one must ensure, that the government support does not generate unhealthy competition</t>
+  </si>
+  <si>
+    <t>to come up with a plan</t>
+  </si>
+  <si>
+    <t>the plan is not yet rolled out</t>
+  </si>
+  <si>
+    <t>I was hired to help implement the plan</t>
+  </si>
+  <si>
+    <t>therefore, the projects that I am in charge of / busy with</t>
+  </si>
+  <si>
+    <t>uncompetitive sectors</t>
+  </si>
+  <si>
+    <t>that the support does not prevent / disturb competition</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>der Wettbewerb und die Regeln machen es sehr schwierig, damit umzugehen</t>
+  </si>
+  <si>
+    <t>umgehen mit + DAT / der Umgang mit + DAT</t>
+  </si>
+  <si>
+    <t>the competition and the rules are difficult to deal with</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1446,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -978,9 +1476,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,34 +1760,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2939,6 +3440,802 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+      <c r="B103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>250</v>
+      </c>
+      <c r="B104" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>267</v>
+      </c>
+      <c r="B112" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>269</v>
+      </c>
+      <c r="B115" t="s">
+        <v>274</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44620</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" t="s">
+        <v>310</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>288</v>
+      </c>
+      <c r="B126" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>328</v>
+      </c>
+      <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>290</v>
+      </c>
+      <c r="B129" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+      <c r="B131" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" t="s">
+        <v>314</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>296</v>
+      </c>
+      <c r="B134" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>307</v>
+      </c>
+      <c r="B136" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>299</v>
+      </c>
+      <c r="B137" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>300</v>
+      </c>
+      <c r="B139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" t="s">
+        <v>324</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>325</v>
+      </c>
+      <c r="B144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
         <v>101</v>
       </c>
     </row>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F254159-E3E7-408F-BB51-8CC804905DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC319FE-2DB8-44BC-A67F-5A7EB5BC1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>der einzige Nicht-Muttersprachler</t>
   </si>
   <si>
-    <t>Ich brauche Deutsche, um die Diskussionen zu verstehen</t>
-  </si>
-  <si>
     <t>das Finanzwesen</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>the competition and the rules are difficult to deal with</t>
+  </si>
+  <si>
+    <t>Ich brauche Deutsch, um die Diskussionen zu verstehen</t>
   </si>
 </sst>
 </file>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>44601</v>
@@ -1807,15 +1807,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>44601</v>
@@ -1824,15 +1824,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>44601</v>
@@ -1841,15 +1841,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>44601</v>
@@ -1858,15 +1858,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>44601</v>
@@ -1875,15 +1875,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>44601</v>
@@ -1892,15 +1892,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>44601</v>
@@ -1909,15 +1909,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>44601</v>
@@ -1926,16 +1926,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1">
         <v>44601</v>
       </c>
@@ -1943,15 +1943,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>44601</v>
@@ -1960,15 +1960,15 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1">
         <v>44601</v>
@@ -1977,15 +1977,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>44601</v>
@@ -1994,15 +1994,15 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>44601</v>
@@ -2011,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="1">
         <v>44601</v>
       </c>
@@ -2028,15 +2028,15 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>44601</v>
@@ -2045,15 +2045,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>44601</v>
@@ -2062,15 +2062,15 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
         <v>44601</v>
@@ -2079,15 +2079,15 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>44601</v>
@@ -2096,15 +2096,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>44601</v>
@@ -2113,15 +2113,15 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>44601</v>
@@ -2130,15 +2130,15 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>44601</v>
@@ -2147,15 +2147,15 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>44601</v>
@@ -2164,15 +2164,15 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
         <v>44601</v>
@@ -2181,15 +2181,15 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>44601</v>
@@ -2198,16 +2198,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="1">
         <v>44601</v>
       </c>
@@ -2215,16 +2215,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
       <c r="C27" s="1">
         <v>44601</v>
       </c>
@@ -2232,15 +2232,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
         <v>44601</v>
@@ -2249,15 +2249,15 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
         <v>44601</v>
@@ -2266,15 +2266,15 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1">
         <v>44601</v>
@@ -2283,15 +2283,15 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1">
         <v>44601</v>
@@ -2300,15 +2300,15 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
         <v>44601</v>
@@ -2317,15 +2317,15 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1">
         <v>44601</v>
@@ -2334,15 +2334,15 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1">
         <v>44601</v>
@@ -2351,15 +2351,15 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
         <v>44601</v>
@@ -2368,15 +2368,15 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1">
         <v>44601</v>
@@ -2385,15 +2385,15 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1">
         <v>44601</v>
@@ -2402,15 +2402,15 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>44601</v>
@@ -2419,15 +2419,15 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1">
         <v>44601</v>
@@ -2436,15 +2436,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1">
         <v>44601</v>
@@ -2453,15 +2453,15 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1">
         <v>44601</v>
@@ -2470,15 +2470,15 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1">
         <v>44601</v>
@@ -2487,15 +2487,15 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1">
         <v>44601</v>
@@ -2504,15 +2504,15 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1">
         <v>44601</v>
@@ -2521,15 +2521,15 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1">
         <v>44601</v>
@@ -2538,15 +2538,15 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1">
         <v>44601</v>
@@ -2555,16 +2555,16 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
         <v>74</v>
       </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
       <c r="C47" s="1">
         <v>44601</v>
       </c>
@@ -2572,16 +2572,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
       <c r="C48" s="1">
         <v>44601</v>
       </c>
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
       <c r="C49" s="1">
         <v>44601</v>
       </c>
@@ -2606,15 +2606,15 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
       </c>
       <c r="C50" s="1">
         <v>44608</v>
@@ -2623,15 +2623,15 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1">
         <v>44608</v>
@@ -2640,15 +2640,15 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1">
         <v>44608</v>
@@ -2657,15 +2657,15 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1">
         <v>44608</v>
@@ -2674,15 +2674,15 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1">
         <v>44608</v>
@@ -2691,15 +2691,15 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1">
         <v>44608</v>
@@ -2708,15 +2708,15 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1">
         <v>44608</v>
@@ -2725,15 +2725,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1">
         <v>44608</v>
@@ -2742,15 +2742,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
       <c r="C58" s="1">
         <v>44608</v>
@@ -2759,15 +2759,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59" s="1">
         <v>44608</v>
@@ -2776,15 +2776,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
       <c r="C60" s="1">
         <v>44608</v>
@@ -2793,16 +2793,16 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
       <c r="C61" s="1">
         <v>44608</v>
@@ -2811,15 +2811,15 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
       <c r="C62" s="1">
         <v>44608</v>
@@ -2828,15 +2828,15 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1">
         <v>44608</v>
@@ -2845,15 +2845,15 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1">
         <v>44608</v>
@@ -2862,15 +2862,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>127</v>
       </c>
       <c r="C65" s="1">
         <v>44608</v>
@@ -2879,15 +2879,15 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="1">
         <v>44608</v>
@@ -2896,15 +2896,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="1">
         <v>44608</v>
@@ -2913,15 +2913,15 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1">
         <v>44608</v>
@@ -2930,15 +2930,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
         <v>133</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
       </c>
       <c r="C69" s="1">
         <v>44608</v>
@@ -2947,15 +2947,15 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="1">
         <v>44608</v>
@@ -2964,15 +2964,15 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1">
         <v>44608</v>
@@ -2981,15 +2981,15 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" s="1">
         <v>44608</v>
@@ -2998,15 +2998,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="1">
         <v>44608</v>
@@ -3015,15 +3015,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="1">
         <v>44608</v>
@@ -3032,15 +3032,15 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1">
         <v>44608</v>
@@ -3049,15 +3049,15 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="1">
         <v>44608</v>
@@ -3066,15 +3066,15 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1">
         <v>44608</v>
@@ -3083,15 +3083,15 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" s="1">
         <v>44608</v>
@@ -3100,15 +3100,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79" s="1">
         <v>44608</v>
@@ -3117,15 +3117,15 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80" s="1">
         <v>44608</v>
@@ -3134,15 +3134,15 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" s="1">
         <v>44608</v>
@@ -3151,15 +3151,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
         <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
       </c>
       <c r="C82" s="1">
         <v>44608</v>
@@ -3168,15 +3168,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1">
         <v>44608</v>
@@ -3185,15 +3185,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C84" s="1">
         <v>44615</v>
@@ -3202,15 +3202,15 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
         <v>169</v>
-      </c>
-      <c r="B85" t="s">
-        <v>170</v>
       </c>
       <c r="C85" s="1">
         <v>44615</v>
@@ -3219,15 +3219,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" s="1">
         <v>44615</v>
@@ -3236,15 +3236,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="1">
         <v>44615</v>
@@ -3253,15 +3253,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" s="1">
         <v>44615</v>
@@ -3270,15 +3270,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89" s="1">
         <v>44615</v>
@@ -3287,15 +3287,15 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="1">
         <v>44615</v>
@@ -3304,15 +3304,15 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="1">
         <v>44615</v>
@@ -3321,15 +3321,15 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" s="1">
         <v>44615</v>
@@ -3338,15 +3338,15 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C93" s="1">
         <v>44615</v>
@@ -3355,15 +3355,15 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" s="1">
         <v>44615</v>
@@ -3372,15 +3372,15 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" s="1">
         <v>44615</v>
@@ -3389,15 +3389,15 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="1">
         <v>44615</v>
@@ -3406,15 +3406,15 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
         <v>193</v>
-      </c>
-      <c r="B97" t="s">
-        <v>194</v>
       </c>
       <c r="C97" s="1">
         <v>44615</v>
@@ -3423,15 +3423,15 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
         <v>195</v>
-      </c>
-      <c r="B98" t="s">
-        <v>196</v>
       </c>
       <c r="C98" s="1">
         <v>44615</v>
@@ -3440,15 +3440,15 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" s="1">
         <v>44620</v>
@@ -3457,15 +3457,15 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C100" s="1">
         <v>44620</v>
@@ -3474,15 +3474,15 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" t="s">
         <v>244</v>
-      </c>
-      <c r="B101" t="s">
-        <v>245</v>
       </c>
       <c r="C101" s="1">
         <v>44620</v>
@@ -3491,15 +3491,15 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" t="s">
         <v>246</v>
-      </c>
-      <c r="B102" t="s">
-        <v>247</v>
       </c>
       <c r="C102" s="1">
         <v>44620</v>
@@ -3508,15 +3508,15 @@
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" t="s">
         <v>248</v>
-      </c>
-      <c r="B103" t="s">
-        <v>249</v>
       </c>
       <c r="C103" s="1">
         <v>44620</v>
@@ -3525,15 +3525,15 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>249</v>
+      </c>
+      <c r="B104" t="s">
         <v>250</v>
-      </c>
-      <c r="B104" t="s">
-        <v>251</v>
       </c>
       <c r="C104" s="1">
         <v>44620</v>
@@ -3542,15 +3542,15 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" t="s">
         <v>252</v>
-      </c>
-      <c r="B105" t="s">
-        <v>253</v>
       </c>
       <c r="C105" s="1">
         <v>44620</v>
@@ -3559,15 +3559,15 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C106" s="1">
         <v>44620</v>
@@ -3576,15 +3576,15 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" t="s">
         <v>256</v>
-      </c>
-      <c r="B107" t="s">
-        <v>257</v>
       </c>
       <c r="C107" s="1">
         <v>44620</v>
@@ -3593,15 +3593,15 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" s="1">
         <v>44620</v>
@@ -3610,15 +3610,15 @@
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C109" s="1">
         <v>44620</v>
@@ -3627,15 +3627,15 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C110" s="1">
         <v>44620</v>
@@ -3644,15 +3644,15 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C111" s="1">
         <v>44620</v>
@@ -3661,15 +3661,15 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C112" s="1">
         <v>44620</v>
@@ -3678,15 +3678,15 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" t="s">
         <v>265</v>
-      </c>
-      <c r="B113" t="s">
-        <v>266</v>
       </c>
       <c r="C113" s="1">
         <v>44620</v>
@@ -3695,15 +3695,15 @@
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C114" s="1">
         <v>44620</v>
@@ -3712,15 +3712,15 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C115" s="1">
         <v>44620</v>
@@ -3729,15 +3729,15 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C116" s="1">
         <v>44620</v>
@@ -3746,15 +3746,15 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C117" s="1">
         <v>44620</v>
@@ -3763,15 +3763,15 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" t="s">
         <v>309</v>
-      </c>
-      <c r="B118" t="s">
-        <v>310</v>
       </c>
       <c r="C118" s="1">
         <v>44622</v>
@@ -3780,15 +3780,15 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" t="s">
         <v>277</v>
-      </c>
-      <c r="B119" t="s">
-        <v>278</v>
       </c>
       <c r="C119" s="1">
         <v>44622</v>
@@ -3797,15 +3797,15 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C120" s="1">
         <v>44622</v>
@@ -3814,15 +3814,15 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C121" s="1">
         <v>44622</v>
@@ -3831,15 +3831,15 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C122" s="1">
         <v>44622</v>
@@ -3848,15 +3848,15 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B123" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C123" s="1">
         <v>44622</v>
@@ -3865,15 +3865,15 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>281</v>
+      </c>
+      <c r="B124" t="s">
         <v>282</v>
-      </c>
-      <c r="B124" t="s">
-        <v>283</v>
       </c>
       <c r="C124" s="1">
         <v>44622</v>
@@ -3882,15 +3882,15 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C125" s="1">
         <v>44622</v>
@@ -3899,15 +3899,15 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" t="s">
         <v>288</v>
-      </c>
-      <c r="B126" t="s">
-        <v>289</v>
       </c>
       <c r="C126" s="1">
         <v>44622</v>
@@ -3916,15 +3916,15 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C127" s="1">
         <v>44622</v>
@@ -3933,15 +3933,15 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128" s="1">
         <v>44622</v>
@@ -3950,15 +3950,15 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
         <v>290</v>
-      </c>
-      <c r="B129" t="s">
-        <v>291</v>
       </c>
       <c r="C129" s="1">
         <v>44622</v>
@@ -3967,12 +3967,12 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C130" s="1">
         <v>44622</v>
@@ -3981,15 +3981,15 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" s="1">
         <v>44622</v>
@@ -3998,15 +3998,15 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C132" s="1">
         <v>44622</v>
@@ -4015,15 +4015,15 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C133" s="1">
         <v>44622</v>
@@ -4032,15 +4032,15 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C134" s="1">
         <v>44622</v>
@@ -4049,15 +4049,15 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B135" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C135" s="1">
         <v>44622</v>
@@ -4066,15 +4066,15 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C136" s="1">
         <v>44622</v>
@@ -4083,15 +4083,15 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B137" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C137" s="1">
         <v>44622</v>
@@ -4100,15 +4100,15 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B138" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C138" s="1">
         <v>44622</v>
@@ -4117,15 +4117,15 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B139" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C139" s="1">
         <v>44622</v>
@@ -4134,15 +4134,15 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C140" s="1">
         <v>44622</v>
@@ -4151,15 +4151,15 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C141" s="1">
         <v>44622</v>
@@ -4168,15 +4168,15 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C142" s="1">
         <v>44622</v>
@@ -4185,15 +4185,15 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C143" s="1">
         <v>44622</v>
@@ -4202,15 +4202,15 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>324</v>
+      </c>
+      <c r="B144" t="s">
         <v>325</v>
-      </c>
-      <c r="B144" t="s">
-        <v>326</v>
       </c>
       <c r="C144" s="1">
         <v>44622</v>
@@ -4219,15 +4219,15 @@
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C145" s="1">
         <v>44622</v>
@@ -4236,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4257,87 +4257,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>211</v>
-      </c>
-      <c r="E2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
         <v>211</v>
-      </c>
-      <c r="E3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4367,166 +4367,166 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>238</v>
-      </c>
-      <c r="H1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
         <v>228</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>229</v>
-      </c>
-      <c r="H2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" t="s">
         <v>229</v>
-      </c>
-      <c r="H3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" t="s">
         <v>223</v>
       </c>
-      <c r="E4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" t="s">
-        <v>224</v>
-      </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" t="s">
         <v>225</v>
       </c>
-      <c r="E6" t="s">
-        <v>226</v>
-      </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC319FE-2DB8-44BC-A67F-5A7EB5BC1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D1529-1178-4293-9851-58ED207F883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="1020" windowWidth="22125" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
     <sheet name="articles" sheetId="2" r:id="rId2"/>
     <sheet name="pronouns" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vocab!$A$1:$E$145</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="332">
   <si>
     <t>Lesson date</t>
   </si>
@@ -1427,6 +1430,9 @@
   </si>
   <si>
     <t>Ich brauche Deutsch, um die Diskussionen zu verstehen</t>
+  </si>
+  <si>
+    <t>a country can favour its own corporates</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1769,7 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,6 +3979,9 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
+      </c>
+      <c r="B130" t="s">
+        <v>331</v>
       </c>
       <c r="C130" s="1">
         <v>44622</v>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D1529-1178-4293-9851-58ED207F883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E1E31-99D2-483C-8398-D9B066812361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="1020" windowWidth="22125" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1300,8 +1300,119 @@
     <t>Ich wurde eingestellt, um zu helfen, dass dieser Plan umgesetzt wird.</t>
   </si>
   <si>
-    <r>
-      <t>deshalb…die Projekte, mit denen ich much besch</t>
+    <t>nicht-wettbewerbsfähige Bereiche</t>
+  </si>
+  <si>
+    <r>
+      <t>Dass die Hilfe, die den Wettbewerb nicht verhindert / st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt</t>
+    </r>
+  </si>
+  <si>
+    <t>eine Woche ist arbeitsreich</t>
+  </si>
+  <si>
+    <t>one must set rules in place</t>
+  </si>
+  <si>
+    <t>sicherstellen</t>
+  </si>
+  <si>
+    <t>verhindern</t>
+  </si>
+  <si>
+    <t>konkurrieren</t>
+  </si>
+  <si>
+    <t>to compete</t>
+  </si>
+  <si>
+    <t>a week is busy</t>
+  </si>
+  <si>
+    <t>my bank is a good example</t>
+  </si>
+  <si>
+    <t>unfortunately there were many bad investments in the sector</t>
+  </si>
+  <si>
+    <t>3-4 years ago</t>
+  </si>
+  <si>
+    <t>the bank needed money from the Lower Saxony government</t>
+  </si>
+  <si>
+    <t>to go bankrupt</t>
+  </si>
+  <si>
+    <t>to ensure</t>
+  </si>
+  <si>
+    <t>one must ensure, that the government support does not generate unhealthy competition</t>
+  </si>
+  <si>
+    <t>to come up with a plan</t>
+  </si>
+  <si>
+    <t>the plan is not yet rolled out</t>
+  </si>
+  <si>
+    <t>I was hired to help implement the plan</t>
+  </si>
+  <si>
+    <t>therefore, the projects that I am in charge of / busy with</t>
+  </si>
+  <si>
+    <t>uncompetitive sectors</t>
+  </si>
+  <si>
+    <t>that the support does not prevent / disturb competition</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>der Wettbewerb und die Regeln machen es sehr schwierig, damit umzugehen</t>
+  </si>
+  <si>
+    <t>umgehen mit + DAT / der Umgang mit + DAT</t>
+  </si>
+  <si>
+    <t>the competition and the rules are difficult to deal with</t>
+  </si>
+  <si>
+    <t>Ich brauche Deutsch, um die Diskussionen zu verstehen</t>
+  </si>
+  <si>
+    <t>a country can favour its own corporates</t>
+  </si>
+  <si>
+    <r>
+      <t>deshalb…die Projekte, mit denen ich mich besch</t>
     </r>
     <r>
       <rPr>
@@ -1322,117 +1433,6 @@
       </rPr>
       <t>ftige</t>
     </r>
-  </si>
-  <si>
-    <t>nicht-wettbewerbsfähige Bereiche</t>
-  </si>
-  <si>
-    <r>
-      <t>Dass die Hilfe, die den Wettbewerb nicht verhindert / st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ö</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rt</t>
-    </r>
-  </si>
-  <si>
-    <t>eine Woche ist arbeitsreich</t>
-  </si>
-  <si>
-    <t>one must set rules in place</t>
-  </si>
-  <si>
-    <t>sicherstellen</t>
-  </si>
-  <si>
-    <t>verhindern</t>
-  </si>
-  <si>
-    <t>konkurrieren</t>
-  </si>
-  <si>
-    <t>to compete</t>
-  </si>
-  <si>
-    <t>a week is busy</t>
-  </si>
-  <si>
-    <t>my bank is a good example</t>
-  </si>
-  <si>
-    <t>unfortunately there were many bad investments in the sector</t>
-  </si>
-  <si>
-    <t>3-4 years ago</t>
-  </si>
-  <si>
-    <t>the bank needed money from the Lower Saxony government</t>
-  </si>
-  <si>
-    <t>to go bankrupt</t>
-  </si>
-  <si>
-    <t>to ensure</t>
-  </si>
-  <si>
-    <t>one must ensure, that the government support does not generate unhealthy competition</t>
-  </si>
-  <si>
-    <t>to come up with a plan</t>
-  </si>
-  <si>
-    <t>the plan is not yet rolled out</t>
-  </si>
-  <si>
-    <t>I was hired to help implement the plan</t>
-  </si>
-  <si>
-    <t>therefore, the projects that I am in charge of / busy with</t>
-  </si>
-  <si>
-    <t>uncompetitive sectors</t>
-  </si>
-  <si>
-    <t>that the support does not prevent / disturb competition</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>disturb</t>
-  </si>
-  <si>
-    <t>prevent</t>
-  </si>
-  <si>
-    <t>der Wettbewerb und die Regeln machen es sehr schwierig, damit umzugehen</t>
-  </si>
-  <si>
-    <t>umgehen mit + DAT / der Umgang mit + DAT</t>
-  </si>
-  <si>
-    <t>the competition and the rules are difficult to deal with</t>
-  </si>
-  <si>
-    <t>Ich brauche Deutsch, um die Diskussionen zu verstehen</t>
-  </si>
-  <si>
-    <t>a country can favour its own corporates</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" t="s">
         <v>308</v>
-      </c>
-      <c r="B118" t="s">
-        <v>309</v>
       </c>
       <c r="C118" s="1">
         <v>44622</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C120" s="1">
         <v>44622</v>
@@ -3896,7 +3896,7 @@
         <v>286</v>
       </c>
       <c r="B125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C125" s="1">
         <v>44622</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C127" s="1">
         <v>44622</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s">
         <v>52</v>
@@ -3981,7 +3981,7 @@
         <v>291</v>
       </c>
       <c r="B130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C130" s="1">
         <v>44622</v>
@@ -3998,7 +3998,7 @@
         <v>292</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C131" s="1">
         <v>44622</v>
@@ -4015,7 +4015,7 @@
         <v>293</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C132" s="1">
         <v>44622</v>
@@ -4032,7 +4032,7 @@
         <v>294</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C133" s="1">
         <v>44622</v>
@@ -4049,7 +4049,7 @@
         <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C134" s="1">
         <v>44622</v>
@@ -4066,7 +4066,7 @@
         <v>296</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="1">
         <v>44622</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C136" s="1">
         <v>44622</v>
@@ -4100,7 +4100,7 @@
         <v>298</v>
       </c>
       <c r="B137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C137" s="1">
         <v>44622</v>
@@ -4117,7 +4117,7 @@
         <v>297</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C138" s="1">
         <v>44622</v>
@@ -4134,7 +4134,7 @@
         <v>299</v>
       </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C139" s="1">
         <v>44622</v>
@@ -4151,7 +4151,7 @@
         <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C140" s="1">
         <v>44622</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C141" s="1">
         <v>44622</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C142" s="1">
         <v>44622</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C143" s="1">
         <v>44622</v>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" t="s">
         <v>324</v>
-      </c>
-      <c r="B144" t="s">
-        <v>325</v>
       </c>
       <c r="C144" s="1">
         <v>44622</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C145" s="1">
         <v>44622</v>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E1E31-99D2-483C-8398-D9B066812361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E088AE5-B520-4A08-9259-B240A8B376C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="1020" windowWidth="22125" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t>trend</t>
   </si>
   <si>
-    <t>wie man die Rohstoffe nutzen</t>
-  </si>
-  <si>
     <t>how raw materials are used</t>
   </si>
   <si>
@@ -1433,6 +1430,9 @@
       </rPr>
       <t>ftige</t>
     </r>
+  </si>
+  <si>
+    <t>wie man die Rohstoffe nutzen wird</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,12 +1813,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1">
         <v>44601</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,12 +2187,12 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,16 +2221,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
       <c r="C27" s="1">
         <v>44601</v>
       </c>
@@ -2238,15 +2238,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1">
         <v>44601</v>
@@ -2255,15 +2255,15 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1">
         <v>44601</v>
@@ -2272,15 +2272,15 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1">
         <v>44601</v>
@@ -2289,15 +2289,15 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
         <v>44601</v>
@@ -2306,15 +2306,15 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1">
         <v>44601</v>
@@ -2323,15 +2323,15 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1">
         <v>44601</v>
@@ -2340,15 +2340,15 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1">
         <v>44601</v>
@@ -2357,15 +2357,15 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1">
         <v>44601</v>
@@ -2374,15 +2374,15 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1">
         <v>44601</v>
@@ -2391,15 +2391,15 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1">
         <v>44601</v>
@@ -2408,15 +2408,15 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1">
         <v>44601</v>
@@ -2425,15 +2425,15 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1">
         <v>44601</v>
@@ -2442,15 +2442,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1">
         <v>44601</v>
@@ -2459,15 +2459,15 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1">
         <v>44601</v>
@@ -2476,15 +2476,15 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1">
         <v>44601</v>
@@ -2493,15 +2493,15 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1">
         <v>44601</v>
@@ -2510,15 +2510,15 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1">
         <v>44601</v>
@@ -2527,15 +2527,15 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>44601</v>
@@ -2544,15 +2544,15 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1">
         <v>44601</v>
@@ -2561,16 +2561,16 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="B47" t="s">
-        <v>74</v>
-      </c>
       <c r="C47" s="1">
         <v>44601</v>
       </c>
@@ -2578,16 +2578,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
       <c r="C48" s="1">
         <v>44601</v>
       </c>
@@ -2595,16 +2595,16 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
       <c r="C49" s="1">
         <v>44601</v>
       </c>
@@ -2612,15 +2612,15 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
       </c>
       <c r="C50" s="1">
         <v>44608</v>
@@ -2629,15 +2629,15 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="1">
         <v>44608</v>
@@ -2646,15 +2646,15 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="1">
         <v>44608</v>
@@ -2663,15 +2663,15 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1">
         <v>44608</v>
@@ -2680,15 +2680,15 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="1">
         <v>44608</v>
@@ -2697,15 +2697,15 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1">
         <v>44608</v>
@@ -2714,15 +2714,15 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1">
         <v>44608</v>
@@ -2731,15 +2731,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1">
         <v>44608</v>
@@ -2748,15 +2748,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
       </c>
       <c r="C58" s="1">
         <v>44608</v>
@@ -2765,15 +2765,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>115</v>
       </c>
       <c r="C59" s="1">
         <v>44608</v>
@@ -2782,15 +2782,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
       </c>
       <c r="C60" s="1">
         <v>44608</v>
@@ -2799,16 +2799,16 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
       </c>
       <c r="C61" s="1">
         <v>44608</v>
@@ -2817,15 +2817,15 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>121</v>
       </c>
       <c r="C62" s="1">
         <v>44608</v>
@@ -2834,15 +2834,15 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1">
         <v>44608</v>
@@ -2851,15 +2851,15 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1">
         <v>44608</v>
@@ -2868,15 +2868,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
         <v>125</v>
-      </c>
-      <c r="B65" t="s">
-        <v>126</v>
       </c>
       <c r="C65" s="1">
         <v>44608</v>
@@ -2885,15 +2885,15 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="1">
         <v>44608</v>
@@ -2902,15 +2902,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" s="1">
         <v>44608</v>
@@ -2919,15 +2919,15 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="1">
         <v>44608</v>
@@ -2936,15 +2936,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
         <v>132</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
       </c>
       <c r="C69" s="1">
         <v>44608</v>
@@ -2953,15 +2953,15 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="1">
         <v>44608</v>
@@ -2970,15 +2970,15 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" s="1">
         <v>44608</v>
@@ -2987,15 +2987,15 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1">
         <v>44608</v>
@@ -3004,15 +3004,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="1">
         <v>44608</v>
@@ -3021,15 +3021,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="1">
         <v>44608</v>
@@ -3038,15 +3038,15 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1">
         <v>44608</v>
@@ -3055,15 +3055,15 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1">
         <v>44608</v>
@@ -3072,12 +3072,12 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
@@ -3089,15 +3089,15 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1">
         <v>44608</v>
@@ -3106,15 +3106,15 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="1">
         <v>44608</v>
@@ -3123,15 +3123,15 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" s="1">
         <v>44608</v>
@@ -3140,15 +3140,15 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="1">
         <v>44608</v>
@@ -3157,15 +3157,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
       </c>
       <c r="C82" s="1">
         <v>44608</v>
@@ -3174,15 +3174,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1">
         <v>44608</v>
@@ -3191,15 +3191,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" s="1">
         <v>44615</v>
@@ -3208,15 +3208,15 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
       </c>
       <c r="C85" s="1">
         <v>44615</v>
@@ -3225,15 +3225,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C86" s="1">
         <v>44615</v>
@@ -3242,15 +3242,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C87" s="1">
         <v>44615</v>
@@ -3259,15 +3259,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C88" s="1">
         <v>44615</v>
@@ -3276,15 +3276,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C89" s="1">
         <v>44615</v>
@@ -3293,15 +3293,15 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C90" s="1">
         <v>44615</v>
@@ -3310,15 +3310,15 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C91" s="1">
         <v>44615</v>
@@ -3327,15 +3327,15 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" s="1">
         <v>44615</v>
@@ -3344,15 +3344,15 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" s="1">
         <v>44615</v>
@@ -3361,15 +3361,15 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C94" s="1">
         <v>44615</v>
@@ -3378,15 +3378,15 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" s="1">
         <v>44615</v>
@@ -3395,15 +3395,15 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96" s="1">
         <v>44615</v>
@@ -3412,15 +3412,15 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
         <v>192</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
       </c>
       <c r="C97" s="1">
         <v>44615</v>
@@ -3429,15 +3429,15 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
         <v>194</v>
-      </c>
-      <c r="B98" t="s">
-        <v>195</v>
       </c>
       <c r="C98" s="1">
         <v>44615</v>
@@ -3446,15 +3446,15 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C99" s="1">
         <v>44620</v>
@@ -3463,15 +3463,15 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" s="1">
         <v>44620</v>
@@ -3480,15 +3480,15 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" t="s">
         <v>243</v>
-      </c>
-      <c r="B101" t="s">
-        <v>244</v>
       </c>
       <c r="C101" s="1">
         <v>44620</v>
@@ -3497,15 +3497,15 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" t="s">
         <v>245</v>
-      </c>
-      <c r="B102" t="s">
-        <v>246</v>
       </c>
       <c r="C102" s="1">
         <v>44620</v>
@@ -3514,15 +3514,15 @@
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" t="s">
         <v>247</v>
-      </c>
-      <c r="B103" t="s">
-        <v>248</v>
       </c>
       <c r="C103" s="1">
         <v>44620</v>
@@ -3531,15 +3531,15 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" t="s">
         <v>249</v>
-      </c>
-      <c r="B104" t="s">
-        <v>250</v>
       </c>
       <c r="C104" s="1">
         <v>44620</v>
@@ -3548,15 +3548,15 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" t="s">
         <v>251</v>
-      </c>
-      <c r="B105" t="s">
-        <v>252</v>
       </c>
       <c r="C105" s="1">
         <v>44620</v>
@@ -3565,15 +3565,15 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C106" s="1">
         <v>44620</v>
@@ -3582,15 +3582,15 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" t="s">
         <v>255</v>
-      </c>
-      <c r="B107" t="s">
-        <v>256</v>
       </c>
       <c r="C107" s="1">
         <v>44620</v>
@@ -3599,15 +3599,15 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C108" s="1">
         <v>44620</v>
@@ -3616,15 +3616,15 @@
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C109" s="1">
         <v>44620</v>
@@ -3633,15 +3633,15 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="1">
         <v>44620</v>
@@ -3650,15 +3650,15 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C111" s="1">
         <v>44620</v>
@@ -3667,15 +3667,15 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C112" s="1">
         <v>44620</v>
@@ -3684,15 +3684,15 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" t="s">
         <v>264</v>
-      </c>
-      <c r="B113" t="s">
-        <v>265</v>
       </c>
       <c r="C113" s="1">
         <v>44620</v>
@@ -3701,15 +3701,15 @@
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C114" s="1">
         <v>44620</v>
@@ -3718,15 +3718,15 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115" s="1">
         <v>44620</v>
@@ -3735,15 +3735,15 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" s="1">
         <v>44620</v>
@@ -3752,15 +3752,15 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C117" s="1">
         <v>44620</v>
@@ -3769,15 +3769,15 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" t="s">
         <v>307</v>
-      </c>
-      <c r="B118" t="s">
-        <v>308</v>
       </c>
       <c r="C118" s="1">
         <v>44622</v>
@@ -3786,15 +3786,15 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" t="s">
         <v>276</v>
-      </c>
-      <c r="B119" t="s">
-        <v>277</v>
       </c>
       <c r="C119" s="1">
         <v>44622</v>
@@ -3803,15 +3803,15 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C120" s="1">
         <v>44622</v>
@@ -3820,15 +3820,15 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C121" s="1">
         <v>44622</v>
@@ -3837,15 +3837,15 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C122" s="1">
         <v>44622</v>
@@ -3854,15 +3854,15 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B123" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C123" s="1">
         <v>44622</v>
@@ -3871,15 +3871,15 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s">
         <v>281</v>
-      </c>
-      <c r="B124" t="s">
-        <v>282</v>
       </c>
       <c r="C124" s="1">
         <v>44622</v>
@@ -3888,15 +3888,15 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C125" s="1">
         <v>44622</v>
@@ -3905,15 +3905,15 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s">
         <v>287</v>
-      </c>
-      <c r="B126" t="s">
-        <v>288</v>
       </c>
       <c r="C126" s="1">
         <v>44622</v>
@@ -3922,15 +3922,15 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C127" s="1">
         <v>44622</v>
@@ -3939,15 +3939,15 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C128" s="1">
         <v>44622</v>
@@ -3956,15 +3956,15 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" t="s">
         <v>289</v>
-      </c>
-      <c r="B129" t="s">
-        <v>290</v>
       </c>
       <c r="C129" s="1">
         <v>44622</v>
@@ -3973,15 +3973,15 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C130" s="1">
         <v>44622</v>
@@ -3990,15 +3990,15 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C131" s="1">
         <v>44622</v>
@@ -4007,15 +4007,15 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C132" s="1">
         <v>44622</v>
@@ -4024,15 +4024,15 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C133" s="1">
         <v>44622</v>
@@ -4041,15 +4041,15 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C134" s="1">
         <v>44622</v>
@@ -4058,15 +4058,15 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C135" s="1">
         <v>44622</v>
@@ -4075,15 +4075,15 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C136" s="1">
         <v>44622</v>
@@ -4092,15 +4092,15 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C137" s="1">
         <v>44622</v>
@@ -4109,15 +4109,15 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B138" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C138" s="1">
         <v>44622</v>
@@ -4126,15 +4126,15 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C139" s="1">
         <v>44622</v>
@@ -4143,15 +4143,15 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C140" s="1">
         <v>44622</v>
@@ -4160,15 +4160,15 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B141" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C141" s="1">
         <v>44622</v>
@@ -4177,15 +4177,15 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B142" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C142" s="1">
         <v>44622</v>
@@ -4194,15 +4194,15 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C143" s="1">
         <v>44622</v>
@@ -4211,15 +4211,15 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>322</v>
+      </c>
+      <c r="B144" t="s">
         <v>323</v>
-      </c>
-      <c r="B144" t="s">
-        <v>324</v>
       </c>
       <c r="C144" s="1">
         <v>44622</v>
@@ -4228,15 +4228,15 @@
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C145" s="1">
         <v>44622</v>
@@ -4245,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4266,87 +4266,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
         <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" t="s">
         <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4376,166 +4376,166 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>237</v>
-      </c>
-      <c r="H1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>228</v>
-      </c>
-      <c r="H2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" t="s">
         <v>228</v>
-      </c>
-      <c r="H3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" t="s">
         <v>222</v>
       </c>
-      <c r="E4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" t="s">
-        <v>223</v>
-      </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
         <v>224</v>
       </c>
-      <c r="E6" t="s">
-        <v>225</v>
-      </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E088AE5-B520-4A08-9259-B240A8B376C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E4D91-6AF8-4F2B-BEEC-0CF1E82D4A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="1020" windowWidth="22125" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vocab!$A$1:$E$145</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="376">
   <si>
     <t>Lesson date</t>
   </si>
@@ -690,15 +700,9 @@
     <t>erneuerbar</t>
   </si>
   <si>
-    <t>grun, umweltfreundlich</t>
-  </si>
-  <si>
     <t>das Risiko, die Risiken</t>
   </si>
   <si>
-    <t>hilfsbedurftig</t>
-  </si>
-  <si>
     <t>need, cash-starved</t>
   </si>
   <si>
@@ -939,9 +943,6 @@
     <t>to do business</t>
   </si>
   <si>
-    <t>um Geschafte zu machen / fur ihre Geschafte</t>
-  </si>
-  <si>
     <t>bewilligen / genehmigen</t>
   </si>
   <si>
@@ -1170,9 +1171,6 @@
     <t>…when someone starts a new position</t>
   </si>
   <si>
-    <t>Regeln muss man umsetzen / realisieren</t>
-  </si>
-  <si>
     <t>der Wettbewerb</t>
   </si>
   <si>
@@ -1294,9 +1292,6 @@
     </r>
   </si>
   <si>
-    <t>Ich wurde eingestellt, um zu helfen, dass dieser Plan umgesetzt wird.</t>
-  </si>
-  <si>
     <t>nicht-wettbewerbsfähige Bereiche</t>
   </si>
   <si>
@@ -1433,6 +1428,465 @@
   </si>
   <si>
     <t>wie man die Rohstoffe nutzen wird</t>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n, umweltfreundlich</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hilfsbed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rftig</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>um Gesch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fte zu machen / fur ihre Geschäfte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regeln mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ß</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> man umsetzen / realisieren</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ich wurde eingestellt, um zu helfen, da</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dieser Plan umgesetzt wird.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>erfolgreich Bankgespr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>che f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hren</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>in welcher Branche ist die Gesch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftsidee?</t>
+    </r>
+  </si>
+  <si>
+    <t>Was hat die Marktanalyse ergeben?</t>
+  </si>
+  <si>
+    <t>die Wertvortellung</t>
+  </si>
+  <si>
+    <t>value proposition</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>conducting successful bank conversations</t>
+  </si>
+  <si>
+    <t>in which sector is the business idea?</t>
+  </si>
+  <si>
+    <t>what are the results from the market analysis?</t>
+  </si>
+  <si>
+    <t>the unique selling point</t>
+  </si>
+  <si>
+    <r>
+      <t>alle M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glichkeiten parat haben</t>
+    </r>
+  </si>
+  <si>
+    <t>sie bewerten die Risikograde</t>
+  </si>
+  <si>
+    <t>der Antragsteller, die Antragsteller</t>
+  </si>
+  <si>
+    <t>der Unternehmer, die Unternehmer</t>
+  </si>
+  <si>
+    <r>
+      <t>der Gesch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>äftsführer, die Geschäftsführer</t>
+    </r>
+  </si>
+  <si>
+    <t>sich darauf vorbereiten, alle Fragen auszudiskutieren</t>
+  </si>
+  <si>
+    <t>to prepare onself to address all questions</t>
+  </si>
+  <si>
+    <t>to have every possibility prepared / covered</t>
+  </si>
+  <si>
+    <t>the risk department says, that there are too many risks</t>
+  </si>
+  <si>
+    <r>
+      <t>das Risikomanagement sagt, da</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β es zu viele Risiken gibt</t>
+    </r>
+  </si>
+  <si>
+    <t>they assess the risk level</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>general manager</t>
+  </si>
+  <si>
+    <t>den Businessplan erstellen</t>
+  </si>
+  <si>
+    <t>das Alleinstellungsmerkmal, die Alleinstellungsmerkmale</t>
+  </si>
+  <si>
+    <t>das Ergebnis der Marktanalyse</t>
+  </si>
+  <si>
+    <r>
+      <t>unternehmerische F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higkeiten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die Kredith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he / die H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he des Kredits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die Kreditw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdigkeit</t>
+    </r>
+  </si>
+  <si>
+    <t>der Blickkontakt - den Blickkontakt halten</t>
+  </si>
+  <si>
+    <r>
+      <t>das Informationsbed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rfnis</t>
+    </r>
+  </si>
+  <si>
+    <t>information request</t>
+  </si>
+  <si>
+    <t>creditworthiness</t>
+  </si>
+  <si>
+    <t>credit quality</t>
+  </si>
+  <si>
+    <t>prepare the business plan</t>
+  </si>
+  <si>
+    <t>the result from the market analysis</t>
+  </si>
+  <si>
+    <t>business potential</t>
+  </si>
+  <si>
+    <t>eye contact / maintain eye contact</t>
+  </si>
+  <si>
+    <t>der Ton</t>
+  </si>
+  <si>
+    <t>demand (as in supply and demand)</t>
+  </si>
+  <si>
+    <t>die Nachfrage (von)</t>
+  </si>
+  <si>
+    <t>ruhig / gelassen bleiben</t>
+  </si>
+  <si>
+    <t>stay calm</t>
+  </si>
+  <si>
+    <t>tone</t>
   </si>
 </sst>
 </file>
@@ -1766,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>98</v>
@@ -1818,7 +2272,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -2226,7 +2680,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3097,7 +3551,7 @@
         <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1">
         <v>44608</v>
@@ -3114,7 +3568,7 @@
         <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="1">
         <v>44608</v>
@@ -3128,10 +3582,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="1">
         <v>44608</v>
@@ -3145,10 +3599,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1">
         <v>44608</v>
@@ -3162,10 +3616,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="1">
         <v>44608</v>
@@ -3179,7 +3633,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
@@ -3196,10 +3650,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="1">
         <v>44615</v>
@@ -3213,10 +3667,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" s="1">
         <v>44615</v>
@@ -3230,10 +3684,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C86" s="1">
         <v>44615</v>
@@ -3247,10 +3701,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C87" s="1">
         <v>44615</v>
@@ -3264,10 +3718,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C88" s="1">
         <v>44615</v>
@@ -3281,10 +3735,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" s="1">
         <v>44615</v>
@@ -3298,10 +3752,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
         <v>174</v>
-      </c>
-      <c r="B90" t="s">
-        <v>176</v>
       </c>
       <c r="C90" s="1">
         <v>44615</v>
@@ -3315,10 +3769,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
         <v>175</v>
-      </c>
-      <c r="B91" t="s">
-        <v>177</v>
       </c>
       <c r="C91" s="1">
         <v>44615</v>
@@ -3332,10 +3786,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" s="1">
         <v>44615</v>
@@ -3349,10 +3803,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C93" s="1">
         <v>44615</v>
@@ -3366,10 +3820,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94" s="1">
         <v>44615</v>
@@ -3383,10 +3837,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C95" s="1">
         <v>44615</v>
@@ -3400,10 +3854,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C96" s="1">
         <v>44615</v>
@@ -3417,10 +3871,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1">
         <v>44615</v>
@@ -3434,10 +3888,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C98" s="1">
         <v>44615</v>
@@ -3451,10 +3905,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C99" s="1">
         <v>44620</v>
@@ -3468,10 +3922,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C100" s="1">
         <v>44620</v>
@@ -3485,10 +3939,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C101" s="1">
         <v>44620</v>
@@ -3502,10 +3956,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C102" s="1">
         <v>44620</v>
@@ -3519,10 +3973,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C103" s="1">
         <v>44620</v>
@@ -3536,10 +3990,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C104" s="1">
         <v>44620</v>
@@ -3553,10 +4007,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C105" s="1">
         <v>44620</v>
@@ -3570,10 +4024,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1">
         <v>44620</v>
@@ -3587,10 +4041,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C107" s="1">
         <v>44620</v>
@@ -3604,10 +4058,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C108" s="1">
         <v>44620</v>
@@ -3621,10 +4075,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C109" s="1">
         <v>44620</v>
@@ -3638,10 +4092,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C110" s="1">
         <v>44620</v>
@@ -3655,10 +4109,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C111" s="1">
         <v>44620</v>
@@ -3672,10 +4126,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C112" s="1">
         <v>44620</v>
@@ -3689,10 +4143,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C113" s="1">
         <v>44620</v>
@@ -3706,10 +4160,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C114" s="1">
         <v>44620</v>
@@ -3723,10 +4177,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C115" s="1">
         <v>44620</v>
@@ -3740,10 +4194,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C116" s="1">
         <v>44620</v>
@@ -3757,10 +4211,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C117" s="1">
         <v>44620</v>
@@ -3774,10 +4228,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C118" s="1">
         <v>44622</v>
@@ -3791,10 +4245,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1">
         <v>44622</v>
@@ -3808,10 +4262,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C120" s="1">
         <v>44622</v>
@@ -3825,10 +4279,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C121" s="1">
         <v>44622</v>
@@ -3842,10 +4296,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C122" s="1">
         <v>44622</v>
@@ -3859,10 +4313,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" t="s">
         <v>279</v>
-      </c>
-      <c r="B123" t="s">
-        <v>282</v>
       </c>
       <c r="C123" s="1">
         <v>44622</v>
@@ -3876,10 +4330,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C124" s="1">
         <v>44622</v>
@@ -3893,10 +4347,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C125" s="1">
         <v>44622</v>
@@ -3910,10 +4364,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C126" s="1">
         <v>44622</v>
@@ -3927,10 +4381,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C127" s="1">
         <v>44622</v>
@@ -3944,7 +4398,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B128" t="s">
         <v>51</v>
@@ -3961,10 +4415,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C129" s="1">
         <v>44622</v>
@@ -3978,10 +4432,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C130" s="1">
         <v>44622</v>
@@ -3995,10 +4449,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C131" s="1">
         <v>44622</v>
@@ -4012,10 +4466,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C132" s="1">
         <v>44622</v>
@@ -4029,10 +4483,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C133" s="1">
         <v>44622</v>
@@ -4046,10 +4500,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C134" s="1">
         <v>44622</v>
@@ -4063,10 +4517,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C135" s="1">
         <v>44622</v>
@@ -4080,10 +4534,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C136" s="1">
         <v>44622</v>
@@ -4097,10 +4551,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1">
         <v>44622</v>
@@ -4114,10 +4568,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C138" s="1">
         <v>44622</v>
@@ -4131,10 +4585,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C139" s="1">
         <v>44622</v>
@@ -4148,10 +4602,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C140" s="1">
         <v>44622</v>
@@ -4165,10 +4619,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C141" s="1">
         <v>44622</v>
@@ -4182,10 +4636,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C142" s="1">
         <v>44622</v>
@@ -4199,10 +4653,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C143" s="1">
         <v>44622</v>
@@ -4216,10 +4670,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B144" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C144" s="1">
         <v>44622</v>
@@ -4233,10 +4687,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C145" s="1">
         <v>44622</v>
@@ -4245,6 +4699,380 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>333</v>
+      </c>
+      <c r="B147" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" t="s">
+        <v>340</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" t="s">
+        <v>336</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>356</v>
+      </c>
+      <c r="B150" t="s">
+        <v>341</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>344</v>
+      </c>
+      <c r="B151" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" t="s">
+        <v>350</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>345</v>
+      </c>
+      <c r="B156" t="s">
+        <v>353</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>346</v>
+      </c>
+      <c r="B157" t="s">
+        <v>354</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>355</v>
+      </c>
+      <c r="B158" t="s">
+        <v>366</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>357</v>
+      </c>
+      <c r="B159" t="s">
+        <v>367</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>358</v>
+      </c>
+      <c r="B160" t="s">
+        <v>368</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>359</v>
+      </c>
+      <c r="B161" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>360</v>
+      </c>
+      <c r="B162" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>361</v>
+      </c>
+      <c r="B163" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>362</v>
+      </c>
+      <c r="B164" t="s">
+        <v>363</v>
+      </c>
+      <c r="C164" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>370</v>
+      </c>
+      <c r="B165" t="s">
+        <v>375</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>372</v>
+      </c>
+      <c r="B166" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167" t="s">
+        <v>374</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4266,87 +5094,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>196</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
-        <v>209</v>
-      </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
         <v>207</v>
       </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
         <v>206</v>
       </c>
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
       <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
         <v>206</v>
-      </c>
-      <c r="E5" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4376,166 +5204,166 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
       <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
-      </c>
-      <c r="G1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="s">
         <v>224</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" t="s">
         <v>226</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
         <v>222</v>
       </c>
-      <c r="E5" t="s">
-        <v>224</v>
-      </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="E7" t="s">
-        <v>225</v>
-      </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E4D91-6AF8-4F2B-BEEC-0CF1E82D4A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4A2FD6-D78F-4981-8497-A4EA9624233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1020" windowWidth="22125" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="378">
   <si>
     <t>Lesson date</t>
   </si>
@@ -1887,6 +1887,12 @@
   </si>
   <si>
     <t>tone</t>
+  </si>
+  <si>
+    <t>das Vorhaben</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,6 +5079,23 @@
         <v>6</v>
       </c>
       <c r="E167" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>376</v>
+      </c>
+      <c r="B168" t="s">
+        <v>377</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
         <v>99</v>
       </c>
     </row>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4A2FD6-D78F-4981-8497-A4EA9624233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E7953-E0DC-4DA9-8969-2B8BD5B8D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="405">
   <si>
     <t>Lesson date</t>
   </si>
@@ -1893,6 +1893,241 @@
   </si>
   <si>
     <t>project</t>
+  </si>
+  <si>
+    <t>einen Kredit aufnehmen</t>
+  </si>
+  <si>
+    <t>einen Kredit genehmigen</t>
+  </si>
+  <si>
+    <t>einen Kredit (bekommen) erhalten</t>
+  </si>
+  <si>
+    <t>einen Kredit verweigern</t>
+  </si>
+  <si>
+    <t>to get a loan</t>
+  </si>
+  <si>
+    <t>to take out a loan</t>
+  </si>
+  <si>
+    <t>to grant a loan</t>
+  </si>
+  <si>
+    <t>to reject a credit</t>
+  </si>
+  <si>
+    <r>
+      <t>einen Kredit gew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hren</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die Kreditw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdigkeit / die finanzielle Lage pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fen [überprüfen] / einsch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tzen / bewerten</t>
+    </r>
+  </si>
+  <si>
+    <t>to check / assess the financial situation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jemand vom Erfolg eines Vorhabens </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>berzeugen</t>
+    </r>
+  </si>
+  <si>
+    <t>to convince someone of the success of a project</t>
+  </si>
+  <si>
+    <t>to prepare / explain / present a business plan</t>
+  </si>
+  <si>
+    <t>in ein Vorhaben investieren</t>
+  </si>
+  <si>
+    <t>to invest in a project</t>
+  </si>
+  <si>
+    <t>Fristen setzen / einhalten</t>
+  </si>
+  <si>
+    <t>to set a timeline / to meet a timeline</t>
+  </si>
+  <si>
+    <r>
+      <t>einen Businessplan / Finanzierungsplan erstellen / machen / erkl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ären / darlegen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>der Gegenstand / die Gegenst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nde</t>
+    </r>
+  </si>
+  <si>
+    <t>object / items</t>
+  </si>
+  <si>
+    <t>the fortune / assets</t>
+  </si>
+  <si>
+    <r>
+      <t>das Verm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gen</t>
+    </r>
+  </si>
+  <si>
+    <t>die Gelegenheit</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>der Nutzen</t>
+  </si>
+  <si>
+    <t>the need / the result / profit / dividend?</t>
   </si>
 </sst>
 </file>
@@ -2226,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5096,6 +5331,244 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>378</v>
+      </c>
+      <c r="B169" t="s">
+        <v>383</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>379</v>
+      </c>
+      <c r="B170" t="s">
+        <v>384</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>386</v>
+      </c>
+      <c r="B171" t="s">
+        <v>384</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>380</v>
+      </c>
+      <c r="B172" t="s">
+        <v>382</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" t="s">
+        <v>385</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" t="s">
+        <v>388</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>389</v>
+      </c>
+      <c r="B175" t="s">
+        <v>390</v>
+      </c>
+      <c r="C175" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>396</v>
+      </c>
+      <c r="B176" t="s">
+        <v>391</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>392</v>
+      </c>
+      <c r="B177" t="s">
+        <v>393</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>394</v>
+      </c>
+      <c r="B178" t="s">
+        <v>395</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>397</v>
+      </c>
+      <c r="B179" t="s">
+        <v>398</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" t="s">
+        <v>399</v>
+      </c>
+      <c r="C180" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>403</v>
+      </c>
+      <c r="B182" t="s">
+        <v>404</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
         <v>99</v>
       </c>
     </row>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E7953-E0DC-4DA9-8969-2B8BD5B8D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0799282D-0E4B-4EB1-A7E9-D67C8223C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="407">
   <si>
     <t>Lesson date</t>
   </si>
@@ -2128,6 +2128,12 @@
   </si>
   <si>
     <t>the need / the result / profit / dividend?</t>
+  </si>
+  <si>
+    <t>sogar</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
 </sst>
 </file>
@@ -2461,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5570,6 +5576,14 @@
       </c>
       <c r="E182" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>405</v>
+      </c>
+      <c r="B183" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0799282D-0E4B-4EB1-A7E9-D67C8223C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BEE46-4CC2-46F9-AB3A-4D81D237A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="407">
   <si>
     <t>Lesson date</t>
   </si>
@@ -2470,7 +2470,7 @@
   <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5584,6 +5584,15 @@
       </c>
       <c r="B183" t="s">
         <v>406</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44636</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BEE46-4CC2-46F9-AB3A-4D81D237A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D97B79-CDE6-479D-9CD2-94D08783B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="49335" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="451">
   <si>
     <t>Lesson date</t>
   </si>
@@ -2134,6 +2134,324 @@
   </si>
   <si>
     <t>even</t>
+  </si>
+  <si>
+    <t>die Beschaffung</t>
+  </si>
+  <si>
+    <t>procurement</t>
+  </si>
+  <si>
+    <t>die Fremdfinanzierung</t>
+  </si>
+  <si>
+    <t>das Fremdkapital</t>
+  </si>
+  <si>
+    <t>der Kapitalgeber</t>
+  </si>
+  <si>
+    <t>das Mindestkapital</t>
+  </si>
+  <si>
+    <t>etwas vorfinanzieren</t>
+  </si>
+  <si>
+    <t>das Finanzierungsinstitut</t>
+  </si>
+  <si>
+    <r>
+      <t>die Gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ünde für das Projekt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die ben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ötigte Summe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sicherheiten f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r die Bank</t>
+    </r>
+  </si>
+  <si>
+    <t>die Alleinstellungsmerkmale des Projekts</t>
+  </si>
+  <si>
+    <r>
+      <t>sich in einem Tonstudio einschlie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>βen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zu k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>önnen</t>
+    </r>
+  </si>
+  <si>
+    <t>to be able to afford to lock themselves into a studio</t>
+  </si>
+  <si>
+    <r>
+      <t>Pl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ne, Kredit zur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ckzuzahlen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wenn die Wahrscheinlichkeit nicht sehr hoch ist, das Geld zur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ückzubekommen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wir glauben, dass es sehr gut m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>öglich ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, …</t>
+    </r>
+  </si>
+  <si>
+    <t>…mit einem Akku immer Geld zu verdienen / gewinnen</t>
+  </si>
+  <si>
+    <t>dann verringert sich der Erfolg</t>
+  </si>
+  <si>
+    <r>
+      <t>der Akku verliert an Kapazit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t und das f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ührt zur Wertminderung</t>
+    </r>
+  </si>
+  <si>
+    <t>Garantie versus Sicherung</t>
+  </si>
+  <si>
+    <t>Sicherheit ist eher die Verwirklichung eines Vorhabens</t>
+  </si>
+  <si>
+    <r>
+      <t>Garantie ist f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ür die Bezahlung</t>
+    </r>
+  </si>
+  <si>
+    <t>external financing</t>
+  </si>
+  <si>
+    <t>third-party capital</t>
+  </si>
+  <si>
+    <t>the capital / equity investor</t>
+  </si>
+  <si>
+    <t>the minimum capital</t>
+  </si>
+  <si>
+    <t>to self-finance / pre-finance something</t>
+  </si>
+  <si>
+    <t>the financing institute</t>
+  </si>
+  <si>
+    <t>the reasons for the project</t>
+  </si>
+  <si>
+    <t>the sum required</t>
+  </si>
+  <si>
+    <t>securities for the bank</t>
+  </si>
+  <si>
+    <t>the project's unique selling point</t>
+  </si>
+  <si>
+    <t>plans to repay credit</t>
+  </si>
+  <si>
+    <t>when the probability is not very high, to get the money back</t>
+  </si>
+  <si>
+    <t>we believe that it is not very likely…</t>
+  </si>
+  <si>
+    <t>...to make money with a battery</t>
+  </si>
+  <si>
+    <t>the success probability drops / decreases</t>
+  </si>
+  <si>
+    <t>the bank favours security over potential - it will only recover money with interest</t>
+  </si>
+  <si>
+    <t>die Bank bevorzugt Sicherheit vor Potential - sie will nur das Geld mit Zinsen wiederbekommen</t>
+  </si>
+  <si>
+    <t>the battery loses in capacity and that leads to a loss in value</t>
+  </si>
+  <si>
+    <t>Guarantee vs Security</t>
+  </si>
+  <si>
+    <t>Security is rather the realisation of a project</t>
+  </si>
+  <si>
+    <t>Guarantee is for the payment</t>
   </si>
 </sst>
 </file>
@@ -2467,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,6 +5911,380 @@
       </c>
       <c r="E183" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>407</v>
+      </c>
+      <c r="B184" t="s">
+        <v>408</v>
+      </c>
+      <c r="C184" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>409</v>
+      </c>
+      <c r="B185" t="s">
+        <v>430</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>410</v>
+      </c>
+      <c r="B186" t="s">
+        <v>431</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D186">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>411</v>
+      </c>
+      <c r="B187" t="s">
+        <v>432</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>412</v>
+      </c>
+      <c r="B188" t="s">
+        <v>433</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>413</v>
+      </c>
+      <c r="B189" t="s">
+        <v>434</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D189">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>414</v>
+      </c>
+      <c r="B190" t="s">
+        <v>435</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>419</v>
+      </c>
+      <c r="B191" t="s">
+        <v>420</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>415</v>
+      </c>
+      <c r="B192" t="s">
+        <v>436</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>416</v>
+      </c>
+      <c r="B193" t="s">
+        <v>437</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>417</v>
+      </c>
+      <c r="B194" t="s">
+        <v>438</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>418</v>
+      </c>
+      <c r="B195" t="s">
+        <v>439</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>421</v>
+      </c>
+      <c r="B196" t="s">
+        <v>440</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>422</v>
+      </c>
+      <c r="B197" t="s">
+        <v>441</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>423</v>
+      </c>
+      <c r="B198" t="s">
+        <v>442</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>424</v>
+      </c>
+      <c r="B199" t="s">
+        <v>443</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D199">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>425</v>
+      </c>
+      <c r="B200" t="s">
+        <v>444</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>446</v>
+      </c>
+      <c r="B201" t="s">
+        <v>445</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>426</v>
+      </c>
+      <c r="B202" t="s">
+        <v>447</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D202">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" t="s">
+        <v>448</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D203">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>428</v>
+      </c>
+      <c r="B204" t="s">
+        <v>449</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D204">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>429</v>
+      </c>
+      <c r="B205" t="s">
+        <v>450</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D97B79-CDE6-479D-9CD2-94D08783B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD043E2-9713-411D-89C9-2F93D80ABCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="49335" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="30645" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="542">
   <si>
     <t>Lesson date</t>
   </si>
@@ -2452,13 +2452,584 @@
   </si>
   <si>
     <t>Guarantee is for the payment</t>
+  </si>
+  <si>
+    <t>weniger werden</t>
+  </si>
+  <si>
+    <t>verringern</t>
+  </si>
+  <si>
+    <t>geringer / weniger</t>
+  </si>
+  <si>
+    <t>die Minderung</t>
+  </si>
+  <si>
+    <t>vermindern</t>
+  </si>
+  <si>
+    <t>niedriger werden</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Franzosen wohnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lieber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in einem Haus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in einer Wohnung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sie m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ögen es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, wenn ein Markt oder ein Supermarkt in der Nähe ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sie haben auch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Anschluss an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">öffentliche Verkehrsmittel in der Nähe / wohnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gern </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>in einer Wohngegend mit Anschluss an öffentliche Verkehrsmittel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sie wohnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sehr gern </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in der N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ähe von guten Schulen.</t>
+    </r>
+  </si>
+  <si>
+    <t>bezahlbar</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <r>
+      <t>Die Leute wollen in den St</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ädten wohnen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es gibt viele Investoren, die nicht investieren wollen.</t>
+  </si>
+  <si>
+    <r>
+      <t>Und es gibt kein gro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>βes Einkommen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mehr oder weniger ist es vergleichbar.</t>
+  </si>
+  <si>
+    <r>
+      <t>Vielleicht ist ein Underschied, da</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β es in Frankreich so ist, daβ es in den groβen Städten nicht so viele Arbeitsmöglichkeiten gibt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zum Beispiel ist es in Deutschland m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>öglich bei einer Bank zu arbeiten, ohne in Berlin oder in Hamburg zu wohnen.</t>
+    </r>
+  </si>
+  <si>
+    <t>die Sozialwohnung</t>
+  </si>
+  <si>
+    <t>der Handwerker</t>
+  </si>
+  <si>
+    <t>die Immobilie</t>
+  </si>
+  <si>
+    <t>der Bauarbeiter</t>
+  </si>
+  <si>
+    <t>das Bauland</t>
+  </si>
+  <si>
+    <t>die Neubauten</t>
+  </si>
+  <si>
+    <t>die Baukosten</t>
+  </si>
+  <si>
+    <t>der Mietpreis</t>
+  </si>
+  <si>
+    <t>günstig, billig</t>
+  </si>
+  <si>
+    <t>mittlerweile</t>
+  </si>
+  <si>
+    <t>der Stadtrand</t>
+  </si>
+  <si>
+    <t>sich etwas leisten</t>
+  </si>
+  <si>
+    <t>die Seltenheit</t>
+  </si>
+  <si>
+    <t>reichen / ausreichen</t>
+  </si>
+  <si>
+    <t>steigen &lt;&gt; sinken</t>
+  </si>
+  <si>
+    <t>die 3-Zimmer-Wohnung</t>
+  </si>
+  <si>
+    <t>erklärbar</t>
+  </si>
+  <si>
+    <t>der Haushalt, die Haushalte</t>
+  </si>
+  <si>
+    <t>der Geringverdiener</t>
+  </si>
+  <si>
+    <t>ersetzen</t>
+  </si>
+  <si>
+    <t>das Nettoeinkommen</t>
+  </si>
+  <si>
+    <t>der Fall</t>
+  </si>
+  <si>
+    <t>insbesondere</t>
+  </si>
+  <si>
+    <t>der Zeitraum</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>die Wohnanlage</t>
+  </si>
+  <si>
+    <t>to decrease</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>the decrease</t>
+  </si>
+  <si>
+    <t>the French prefer living in an house rather than in a flat</t>
+  </si>
+  <si>
+    <t>they prefer to have access to public transport nearby / they prefer to live in a residential area with access to public transport.</t>
+  </si>
+  <si>
+    <t>der Wohngegend</t>
+  </si>
+  <si>
+    <t>the residential area</t>
+  </si>
+  <si>
+    <t>they like very much to live near good schools</t>
+  </si>
+  <si>
+    <t>the prefer, when there is a market or supermarket nearby</t>
+  </si>
+  <si>
+    <t>they also prefer to stay in a quiet appartment or a quiet house, rather than staying in a flat or a house facing a highway or an airport.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sie wollen auch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lieber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eine ruhige Wohnung oder ein ruhiges Haus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eine Wohnung oder ein Haus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> einer Autobahn / an einem Flughafen.</t>
+    </r>
+  </si>
+  <si>
+    <t>people want to live in the cities</t>
+  </si>
+  <si>
+    <t>many investors do not want to invest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wir haben </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dieselbe…</t>
+    </r>
+  </si>
+  <si>
+    <t>We have the same…</t>
+  </si>
+  <si>
+    <t>and there is no high income</t>
+  </si>
+  <si>
+    <t>it is more or less comparable</t>
+  </si>
+  <si>
+    <t>maybe a difference is that in France there are not so many job opportunities in the big cities</t>
+  </si>
+  <si>
+    <t>for example in Germany it is possible to work at a bank, without living in Berlin or Hamburg</t>
+  </si>
+  <si>
+    <t>social housing</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>the manual worker</t>
+  </si>
+  <si>
+    <t>real estate</t>
+  </si>
+  <si>
+    <t>construction worker</t>
+  </si>
+  <si>
+    <t>building land / development area</t>
+  </si>
+  <si>
+    <r>
+      <t>der Wohnraum / die Wohnfl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>äche</t>
+    </r>
+  </si>
+  <si>
+    <t>living space</t>
+  </si>
+  <si>
+    <t>the new houses / buildings</t>
+  </si>
+  <si>
+    <t>the building costs</t>
+  </si>
+  <si>
+    <t>the rental cost</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>in the meantime / meanwhile</t>
+  </si>
+  <si>
+    <t>the suburb</t>
+  </si>
+  <si>
+    <t>to afford something</t>
+  </si>
+  <si>
+    <t>the scarcity</t>
+  </si>
+  <si>
+    <t>be sufficient</t>
+  </si>
+  <si>
+    <t>to increase / to drop</t>
+  </si>
+  <si>
+    <t>the 3 bedroom appartment</t>
+  </si>
+  <si>
+    <t>explainable</t>
+  </si>
+  <si>
+    <t>the low income earner</t>
+  </si>
+  <si>
+    <t>to replace / substitute</t>
+  </si>
+  <si>
+    <t>net income</t>
+  </si>
+  <si>
+    <t>the case</t>
+  </si>
+  <si>
+    <t>in particular</t>
+  </si>
+  <si>
+    <t>the period</t>
+  </si>
+  <si>
+    <t>to cover</t>
+  </si>
+  <si>
+    <t>the residence / condominium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2479,6 +3050,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2785,15 +3363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="142.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -6285,6 +6863,805 @@
       </c>
       <c r="E205" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>451</v>
+      </c>
+      <c r="B206" t="s">
+        <v>495</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>452</v>
+      </c>
+      <c r="B207" t="s">
+        <v>495</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>453</v>
+      </c>
+      <c r="B208" t="s">
+        <v>496</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>454</v>
+      </c>
+      <c r="B209" t="s">
+        <v>497</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D209">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>455</v>
+      </c>
+      <c r="B210" t="s">
+        <v>495</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>456</v>
+      </c>
+      <c r="B211" t="s">
+        <v>495</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>457</v>
+      </c>
+      <c r="B212" t="s">
+        <v>498</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>500</v>
+      </c>
+      <c r="B213" t="s">
+        <v>501</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>459</v>
+      </c>
+      <c r="B214" t="s">
+        <v>499</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>460</v>
+      </c>
+      <c r="B215" t="s">
+        <v>502</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D215">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>458</v>
+      </c>
+      <c r="B216" t="s">
+        <v>503</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>505</v>
+      </c>
+      <c r="B217" t="s">
+        <v>504</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>461</v>
+      </c>
+      <c r="B218" t="s">
+        <v>462</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>463</v>
+      </c>
+      <c r="B219" t="s">
+        <v>506</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>464</v>
+      </c>
+      <c r="B220" t="s">
+        <v>507</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>508</v>
+      </c>
+      <c r="B221" t="s">
+        <v>509</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>465</v>
+      </c>
+      <c r="B222" t="s">
+        <v>510</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>466</v>
+      </c>
+      <c r="B223" t="s">
+        <v>511</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>467</v>
+      </c>
+      <c r="B224" t="s">
+        <v>512</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>468</v>
+      </c>
+      <c r="B225" t="s">
+        <v>513</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>469</v>
+      </c>
+      <c r="B226" t="s">
+        <v>514</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>486</v>
+      </c>
+      <c r="B227" t="s">
+        <v>515</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>470</v>
+      </c>
+      <c r="B228" t="s">
+        <v>516</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>471</v>
+      </c>
+      <c r="B229" t="s">
+        <v>517</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230" t="s">
+        <v>518</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>473</v>
+      </c>
+      <c r="B231" t="s">
+        <v>519</v>
+      </c>
+      <c r="C231" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>520</v>
+      </c>
+      <c r="B232" t="s">
+        <v>521</v>
+      </c>
+      <c r="C232" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D232">
+        <v>9</v>
+      </c>
+      <c r="E232" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>474</v>
+      </c>
+      <c r="B233" t="s">
+        <v>522</v>
+      </c>
+      <c r="C233" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D233">
+        <v>9</v>
+      </c>
+      <c r="E233" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>475</v>
+      </c>
+      <c r="B234" t="s">
+        <v>523</v>
+      </c>
+      <c r="C234" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D234">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>476</v>
+      </c>
+      <c r="B235" t="s">
+        <v>524</v>
+      </c>
+      <c r="C235" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D235">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>477</v>
+      </c>
+      <c r="B236" t="s">
+        <v>525</v>
+      </c>
+      <c r="C236" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D236">
+        <v>9</v>
+      </c>
+      <c r="E236" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>478</v>
+      </c>
+      <c r="B237" t="s">
+        <v>526</v>
+      </c>
+      <c r="C237" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D237">
+        <v>9</v>
+      </c>
+      <c r="E237" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>479</v>
+      </c>
+      <c r="B238" t="s">
+        <v>527</v>
+      </c>
+      <c r="C238" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>480</v>
+      </c>
+      <c r="B239" t="s">
+        <v>528</v>
+      </c>
+      <c r="C239" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D239">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>481</v>
+      </c>
+      <c r="B240" t="s">
+        <v>529</v>
+      </c>
+      <c r="C240" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D240">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>482</v>
+      </c>
+      <c r="B241" t="s">
+        <v>530</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D241">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>483</v>
+      </c>
+      <c r="B242" t="s">
+        <v>531</v>
+      </c>
+      <c r="C242" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D242">
+        <v>9</v>
+      </c>
+      <c r="E242" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>532</v>
+      </c>
+      <c r="C243" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D243">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>485</v>
+      </c>
+      <c r="B244" t="s">
+        <v>533</v>
+      </c>
+      <c r="C244" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D244">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>487</v>
+      </c>
+      <c r="B245" t="s">
+        <v>534</v>
+      </c>
+      <c r="C245" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D245">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" t="s">
+        <v>535</v>
+      </c>
+      <c r="C246" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" t="s">
+        <v>536</v>
+      </c>
+      <c r="C247" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D247">
+        <v>9</v>
+      </c>
+      <c r="E247" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" t="s">
+        <v>537</v>
+      </c>
+      <c r="C248" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+      <c r="E248" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>491</v>
+      </c>
+      <c r="B249" t="s">
+        <v>538</v>
+      </c>
+      <c r="C249" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D249">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>492</v>
+      </c>
+      <c r="B250" t="s">
+        <v>539</v>
+      </c>
+      <c r="C250" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D250">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>493</v>
+      </c>
+      <c r="B251" t="s">
+        <v>540</v>
+      </c>
+      <c r="C251" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D251">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>494</v>
+      </c>
+      <c r="B252" t="s">
+        <v>541</v>
+      </c>
+      <c r="C252" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD043E2-9713-411D-89C9-2F93D80ABCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987D9E77-170E-4E0F-80E1-5AA7E21CC876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="30645" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="602">
   <si>
     <t>Lesson date</t>
   </si>
@@ -3023,6 +3023,367 @@
   </si>
   <si>
     <t>the residence / condominium</t>
+  </si>
+  <si>
+    <t>der Aushang</t>
+  </si>
+  <si>
+    <t>der Bewohner (die Bewohner) / die Bewohnerin (die Bewohnerinen)</t>
+  </si>
+  <si>
+    <t>die Erneuerung, -en</t>
+  </si>
+  <si>
+    <t>die Aufzugsanlage, -n</t>
+  </si>
+  <si>
+    <r>
+      <t>der Aufzug (die Aufz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>üge) / der Lift, -e</t>
+    </r>
+  </si>
+  <si>
+    <t>voraussichtlich</t>
+  </si>
+  <si>
+    <t>ausführlich</t>
+  </si>
+  <si>
+    <t>das Anschreiben, -</t>
+  </si>
+  <si>
+    <t>die Unannehmlichkeit, -en</t>
+  </si>
+  <si>
+    <r>
+      <t>die Sicherheit gew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ährleisten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>abschlie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>βen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (abgleschlossen)</t>
+    </r>
+  </si>
+  <si>
+    <t>der Fenstersims, -e / das Fensterbrett, -er</t>
+  </si>
+  <si>
+    <r>
+      <t>der Notfall (die Notf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>älle) (+ vorliegen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die technische St</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>örung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, technische Störungen</t>
+    </r>
+  </si>
+  <si>
+    <t>vorliegen</t>
+  </si>
+  <si>
+    <t>in Rechnung stellen</t>
+  </si>
+  <si>
+    <r>
+      <t>vertrauensw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdig</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vollj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ährig</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>den Zugang gew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hren</t>
+    </r>
+  </si>
+  <si>
+    <t>verschicken / schicken</t>
+  </si>
+  <si>
+    <r>
+      <t>die Gesch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftszeit, -en</t>
+    </r>
+  </si>
+  <si>
+    <t>der Unfall</t>
+  </si>
+  <si>
+    <t>der Vorfall</t>
+  </si>
+  <si>
+    <t>der Zufall</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>randomness / chance / coincidence</t>
+  </si>
+  <si>
+    <t>der Ausfall</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <r>
+      <t>o.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (oder Ähnliches)</t>
+    </r>
+  </si>
+  <si>
+    <t>ggf (gegebenfalls)</t>
+  </si>
+  <si>
+    <r>
+      <t>Wenn man mich fragen w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ürde, würde ich das Wort nicht verwenden.</t>
+    </r>
+  </si>
+  <si>
+    <t>the notice</t>
+  </si>
+  <si>
+    <t>the resident</t>
+  </si>
+  <si>
+    <t>the renovation</t>
+  </si>
+  <si>
+    <t>the elevator system</t>
+  </si>
+  <si>
+    <t>the elevator</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>detailed</t>
+  </si>
+  <si>
+    <t>cover letter / letter / notice</t>
+  </si>
+  <si>
+    <t>inconvenience</t>
+  </si>
+  <si>
+    <t>to ensure security</t>
+  </si>
+  <si>
+    <t>to lock</t>
+  </si>
+  <si>
+    <t>the windowsill</t>
+  </si>
+  <si>
+    <t>the emergency</t>
+  </si>
+  <si>
+    <t>technical failure</t>
+  </si>
+  <si>
+    <t>to be available / present</t>
+  </si>
+  <si>
+    <t>to invoice / put in an invoice</t>
+  </si>
+  <si>
+    <t>specified</t>
+  </si>
+  <si>
+    <t>angegebenen / angegebene</t>
+  </si>
+  <si>
+    <t>abgeben</t>
+  </si>
+  <si>
+    <t>to submit</t>
+  </si>
+  <si>
+    <t>trustworthy</t>
+  </si>
+  <si>
+    <t>of legal age</t>
+  </si>
+  <si>
+    <t>to grant access</t>
+  </si>
+  <si>
+    <t>to send</t>
+  </si>
+  <si>
+    <t>opening hours</t>
+  </si>
+  <si>
+    <t>or similar</t>
+  </si>
+  <si>
+    <t>in which case…</t>
+  </si>
+  <si>
+    <t>if someone were asking me, I would not use the word</t>
   </si>
 </sst>
 </file>
@@ -3363,10 +3724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7662,6 +8023,516 @@
       </c>
       <c r="E252" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>542</v>
+      </c>
+      <c r="B253" t="s">
+        <v>574</v>
+      </c>
+      <c r="C253" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D253">
+        <v>10</v>
+      </c>
+      <c r="E253" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>543</v>
+      </c>
+      <c r="B254" t="s">
+        <v>575</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>544</v>
+      </c>
+      <c r="B255" t="s">
+        <v>576</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>545</v>
+      </c>
+      <c r="B256" t="s">
+        <v>577</v>
+      </c>
+      <c r="C256" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>546</v>
+      </c>
+      <c r="B257" t="s">
+        <v>578</v>
+      </c>
+      <c r="C257" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>547</v>
+      </c>
+      <c r="B258" t="s">
+        <v>579</v>
+      </c>
+      <c r="C258" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>548</v>
+      </c>
+      <c r="B259" t="s">
+        <v>580</v>
+      </c>
+      <c r="C259" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>549</v>
+      </c>
+      <c r="B260" t="s">
+        <v>581</v>
+      </c>
+      <c r="C260" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D260">
+        <v>10</v>
+      </c>
+      <c r="E260" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>550</v>
+      </c>
+      <c r="B261" t="s">
+        <v>582</v>
+      </c>
+      <c r="C261" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D261">
+        <v>10</v>
+      </c>
+      <c r="E261" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>551</v>
+      </c>
+      <c r="B262" t="s">
+        <v>583</v>
+      </c>
+      <c r="C262" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D262">
+        <v>10</v>
+      </c>
+      <c r="E262" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>552</v>
+      </c>
+      <c r="B263" t="s">
+        <v>584</v>
+      </c>
+      <c r="C263" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>553</v>
+      </c>
+      <c r="B264" t="s">
+        <v>585</v>
+      </c>
+      <c r="C264" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D264">
+        <v>10</v>
+      </c>
+      <c r="E264" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>554</v>
+      </c>
+      <c r="B265" t="s">
+        <v>586</v>
+      </c>
+      <c r="C265" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D265">
+        <v>10</v>
+      </c>
+      <c r="E265" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>555</v>
+      </c>
+      <c r="B266" t="s">
+        <v>587</v>
+      </c>
+      <c r="C266" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D266">
+        <v>10</v>
+      </c>
+      <c r="E266" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>556</v>
+      </c>
+      <c r="B267" t="s">
+        <v>588</v>
+      </c>
+      <c r="C267" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D267">
+        <v>10</v>
+      </c>
+      <c r="E267" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>557</v>
+      </c>
+      <c r="B268" t="s">
+        <v>589</v>
+      </c>
+      <c r="C268" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D268">
+        <v>10</v>
+      </c>
+      <c r="E268" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>591</v>
+      </c>
+      <c r="B269" t="s">
+        <v>590</v>
+      </c>
+      <c r="C269" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+      <c r="E269" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>592</v>
+      </c>
+      <c r="B270" t="s">
+        <v>593</v>
+      </c>
+      <c r="C270" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D270">
+        <v>10</v>
+      </c>
+      <c r="E270" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>558</v>
+      </c>
+      <c r="B271" t="s">
+        <v>594</v>
+      </c>
+      <c r="C271" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D271">
+        <v>10</v>
+      </c>
+      <c r="E271" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>559</v>
+      </c>
+      <c r="B272" t="s">
+        <v>595</v>
+      </c>
+      <c r="C272" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D272">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>560</v>
+      </c>
+      <c r="B273" t="s">
+        <v>596</v>
+      </c>
+      <c r="C273" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D273">
+        <v>10</v>
+      </c>
+      <c r="E273" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>561</v>
+      </c>
+      <c r="B274" t="s">
+        <v>597</v>
+      </c>
+      <c r="C274" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D274">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>562</v>
+      </c>
+      <c r="B275" t="s">
+        <v>598</v>
+      </c>
+      <c r="C275" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D275">
+        <v>10</v>
+      </c>
+      <c r="E275" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>563</v>
+      </c>
+      <c r="B276" t="s">
+        <v>566</v>
+      </c>
+      <c r="C276" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D276">
+        <v>10</v>
+      </c>
+      <c r="E276" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>564</v>
+      </c>
+      <c r="B277" t="s">
+        <v>567</v>
+      </c>
+      <c r="C277" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D277">
+        <v>10</v>
+      </c>
+      <c r="E277" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>565</v>
+      </c>
+      <c r="B278" t="s">
+        <v>568</v>
+      </c>
+      <c r="C278" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D278">
+        <v>10</v>
+      </c>
+      <c r="E278" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>569</v>
+      </c>
+      <c r="B279" t="s">
+        <v>570</v>
+      </c>
+      <c r="C279" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D279">
+        <v>10</v>
+      </c>
+      <c r="E279" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>571</v>
+      </c>
+      <c r="B280" t="s">
+        <v>599</v>
+      </c>
+      <c r="C280" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D280">
+        <v>10</v>
+      </c>
+      <c r="E280" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>572</v>
+      </c>
+      <c r="B281" t="s">
+        <v>600</v>
+      </c>
+      <c r="C281" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D281">
+        <v>10</v>
+      </c>
+      <c r="E281" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>573</v>
+      </c>
+      <c r="B282" t="s">
+        <v>601</v>
+      </c>
+      <c r="C282" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
+      <c r="E282" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987D9E77-170E-4E0F-80E1-5AA7E21CC876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3F9B0-DA22-46D1-8556-FAE8620FD0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="30645" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="618">
   <si>
     <t>Lesson date</t>
   </si>
@@ -3384,6 +3384,109 @@
   </si>
   <si>
     <t>if someone were asking me, I would not use the word</t>
+  </si>
+  <si>
+    <t>…spricht uns besonders an</t>
+  </si>
+  <si>
+    <r>
+      <t>…haben wir / habe ich die M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>öglichkeit…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ür…wünschen wir uns…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ich / Wir k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>önnen uns vorstellen, …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wir h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ätten gerne…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Au</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>βerdem…</t>
+    </r>
+  </si>
+  <si>
+    <t>Ich/Wir finden… gut, weil/da…</t>
+  </si>
+  <si>
+    <t>Besonders wichtig ist mir/uns…</t>
+  </si>
+  <si>
+    <t>appeals to me / us</t>
+  </si>
+  <si>
+    <t>we have the possibility</t>
+  </si>
+  <si>
+    <t>for… we wish</t>
+  </si>
+  <si>
+    <t>we can imagine / picture</t>
+  </si>
+  <si>
+    <t>we would like…</t>
+  </si>
+  <si>
+    <t>besides that…</t>
+  </si>
+  <si>
+    <t>I find…good, because</t>
+  </si>
+  <si>
+    <t>It is particularly important to us…</t>
   </si>
 </sst>
 </file>
@@ -3724,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H282"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C282" sqref="C282:E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8532,6 +8635,142 @@
         <v>10</v>
       </c>
       <c r="E282" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>602</v>
+      </c>
+      <c r="B283" t="s">
+        <v>610</v>
+      </c>
+      <c r="C283" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D283">
+        <v>10</v>
+      </c>
+      <c r="E283" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>603</v>
+      </c>
+      <c r="B284" t="s">
+        <v>611</v>
+      </c>
+      <c r="C284" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+      <c r="E284" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>604</v>
+      </c>
+      <c r="B285" t="s">
+        <v>612</v>
+      </c>
+      <c r="C285" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D285">
+        <v>10</v>
+      </c>
+      <c r="E285" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>605</v>
+      </c>
+      <c r="B286" t="s">
+        <v>613</v>
+      </c>
+      <c r="C286" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D286">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>606</v>
+      </c>
+      <c r="B287" t="s">
+        <v>614</v>
+      </c>
+      <c r="C287" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D287">
+        <v>10</v>
+      </c>
+      <c r="E287" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>607</v>
+      </c>
+      <c r="B288" t="s">
+        <v>615</v>
+      </c>
+      <c r="C288" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D288">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>608</v>
+      </c>
+      <c r="B289" t="s">
+        <v>616</v>
+      </c>
+      <c r="C289" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>609</v>
+      </c>
+      <c r="B290" t="s">
+        <v>617</v>
+      </c>
+      <c r="C290" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D290">
+        <v>10</v>
+      </c>
+      <c r="E290" t="s">
         <v>97</v>
       </c>
     </row>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3F9B0-DA22-46D1-8556-FAE8620FD0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88CFFE-62C2-4B58-A5C9-7C193AA2D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="622">
   <si>
     <t>Lesson date</t>
   </si>
@@ -3487,6 +3487,18 @@
   </si>
   <si>
     <t>It is particularly important to us…</t>
+  </si>
+  <si>
+    <t>den Zugang verwehren</t>
+  </si>
+  <si>
+    <t>to deny access</t>
+  </si>
+  <si>
+    <t>anwesend / abwesend</t>
+  </si>
+  <si>
+    <t>present / absent</t>
   </si>
 </sst>
 </file>
@@ -3827,10 +3839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C282" sqref="C282:E290"/>
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8385,10 +8397,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="B268" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="C268" s="1">
         <v>44657</v>
@@ -8402,10 +8414,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="B269" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C269" s="1">
         <v>44657</v>
@@ -8419,10 +8431,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B270" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C270" s="1">
         <v>44657</v>
@@ -8436,10 +8448,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="B271" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C271" s="1">
         <v>44657</v>
@@ -8453,10 +8465,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B272" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C272" s="1">
         <v>44657</v>
@@ -8470,10 +8482,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B273" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C273" s="1">
         <v>44657</v>
@@ -8487,10 +8499,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B274" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C274" s="1">
         <v>44657</v>
@@ -8504,10 +8516,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>562</v>
+        <v>618</v>
       </c>
       <c r="B275" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="C275" s="1">
         <v>44657</v>
@@ -8521,10 +8533,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B276" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="C276" s="1">
         <v>44657</v>
@@ -8538,10 +8550,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B277" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="C277" s="1">
         <v>44657</v>
@@ -8555,10 +8567,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B278" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C278" s="1">
         <v>44657</v>
@@ -8572,10 +8584,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B279" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C279" s="1">
         <v>44657</v>
@@ -8589,10 +8601,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B280" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="C280" s="1">
         <v>44657</v>
@@ -8606,10 +8618,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B281" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="C281" s="1">
         <v>44657</v>
@@ -8623,10 +8635,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B282" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C282" s="1">
         <v>44657</v>
@@ -8635,15 +8647,15 @@
         <v>10</v>
       </c>
       <c r="E282" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="B283" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C283" s="1">
         <v>44657</v>
@@ -8652,15 +8664,15 @@
         <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="B284" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C284" s="1">
         <v>44657</v>
@@ -8674,10 +8686,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B285" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C285" s="1">
         <v>44657</v>
@@ -8691,10 +8703,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B286" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C286" s="1">
         <v>44657</v>
@@ -8708,10 +8720,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B287" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C287" s="1">
         <v>44657</v>
@@ -8725,10 +8737,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B288" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C288" s="1">
         <v>44657</v>
@@ -8742,10 +8754,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B289" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C289" s="1">
         <v>44657</v>
@@ -8759,10 +8771,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B290" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C290" s="1">
         <v>44657</v>
@@ -8771,6 +8783,40 @@
         <v>10</v>
       </c>
       <c r="E290" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>608</v>
+      </c>
+      <c r="B291" t="s">
+        <v>616</v>
+      </c>
+      <c r="C291" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D291">
+        <v>10</v>
+      </c>
+      <c r="E291" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>609</v>
+      </c>
+      <c r="B292" t="s">
+        <v>617</v>
+      </c>
+      <c r="C292" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D292">
+        <v>10</v>
+      </c>
+      <c r="E292" t="s">
         <v>97</v>
       </c>
     </row>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88CFFE-62C2-4B58-A5C9-7C193AA2D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32041939-95C2-4205-8CEE-8DB56DBDBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="4500" windowWidth="23670" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="624">
   <si>
     <t>Lesson date</t>
   </si>
@@ -3499,6 +3499,23 @@
   </si>
   <si>
     <t>present / absent</t>
+  </si>
+  <si>
+    <r>
+      <t>den Schl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>üssel hinterlegen / abgeben</t>
+    </r>
+  </si>
+  <si>
+    <t>to leave the key</t>
   </si>
 </sst>
 </file>
@@ -3839,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8414,10 +8431,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="B269" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="C269" s="1">
         <v>44657</v>
@@ -8431,10 +8448,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="B270" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C270" s="1">
         <v>44657</v>
@@ -8448,10 +8465,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B271" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C271" s="1">
         <v>44657</v>
@@ -8465,10 +8482,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="B272" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C272" s="1">
         <v>44657</v>
@@ -8482,10 +8499,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B273" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C273" s="1">
         <v>44657</v>
@@ -8499,10 +8516,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B274" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C274" s="1">
         <v>44657</v>
@@ -8516,10 +8533,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
       <c r="B275" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="C275" s="1">
         <v>44657</v>
@@ -8533,10 +8550,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="B276" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C276" s="1">
         <v>44657</v>
@@ -8550,10 +8567,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B277" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C277" s="1">
         <v>44657</v>
@@ -8567,10 +8584,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B278" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="C278" s="1">
         <v>44657</v>
@@ -8584,10 +8601,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B279" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C279" s="1">
         <v>44657</v>
@@ -8601,10 +8618,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B280" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C280" s="1">
         <v>44657</v>
@@ -8618,10 +8635,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B281" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C281" s="1">
         <v>44657</v>
@@ -8635,10 +8652,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B282" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="C282" s="1">
         <v>44657</v>
@@ -8652,10 +8669,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B283" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C283" s="1">
         <v>44657</v>
@@ -8669,10 +8686,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B284" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C284" s="1">
         <v>44657</v>
@@ -8681,15 +8698,15 @@
         <v>10</v>
       </c>
       <c r="E284" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="B285" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C285" s="1">
         <v>44657</v>
@@ -8703,10 +8720,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B286" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C286" s="1">
         <v>44657</v>
@@ -8720,10 +8737,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B287" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C287" s="1">
         <v>44657</v>
@@ -8737,10 +8754,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B288" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C288" s="1">
         <v>44657</v>
@@ -8754,10 +8771,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B289" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C289" s="1">
         <v>44657</v>
@@ -8771,10 +8788,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B290" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C290" s="1">
         <v>44657</v>
@@ -8788,10 +8805,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B291" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C291" s="1">
         <v>44657</v>
@@ -8805,10 +8822,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B292" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C292" s="1">
         <v>44657</v>
@@ -8817,6 +8834,23 @@
         <v>10</v>
       </c>
       <c r="E292" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>609</v>
+      </c>
+      <c r="B293" t="s">
+        <v>617</v>
+      </c>
+      <c r="C293" s="1">
+        <v>44657</v>
+      </c>
+      <c r="D293">
+        <v>10</v>
+      </c>
+      <c r="E293" t="s">
         <v>97</v>
       </c>
     </row>

--- a/german_vocab.xlsx
+++ b/german_vocab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32041939-95C2-4205-8CEE-8DB56DBDBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED20D72-8C00-47A5-9CD2-679D52BD16AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="4500" windowWidth="23670" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="4500" windowWidth="23670" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="647">
   <si>
     <t>Lesson date</t>
   </si>
@@ -3077,6 +3077,423 @@
     </r>
   </si>
   <si>
+    <t>der Fenstersims, -e / das Fensterbrett, -er</t>
+  </si>
+  <si>
+    <r>
+      <t>der Notfall (die Notf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>älle) (+ vorliegen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die technische St</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>örung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, technische Störungen</t>
+    </r>
+  </si>
+  <si>
+    <t>vorliegen</t>
+  </si>
+  <si>
+    <t>in Rechnung stellen</t>
+  </si>
+  <si>
+    <r>
+      <t>vertrauensw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdig</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vollj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ährig</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>den Zugang gew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hren</t>
+    </r>
+  </si>
+  <si>
+    <t>verschicken / schicken</t>
+  </si>
+  <si>
+    <r>
+      <t>die Gesch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftszeit, -en</t>
+    </r>
+  </si>
+  <si>
+    <t>der Unfall</t>
+  </si>
+  <si>
+    <t>der Vorfall</t>
+  </si>
+  <si>
+    <t>der Zufall</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>randomness / chance / coincidence</t>
+  </si>
+  <si>
+    <t>der Ausfall</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <r>
+      <t>o.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (oder Ähnliches)</t>
+    </r>
+  </si>
+  <si>
+    <t>ggf (gegebenfalls)</t>
+  </si>
+  <si>
+    <r>
+      <t>Wenn man mich fragen w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ürde, würde ich das Wort nicht verwenden.</t>
+    </r>
+  </si>
+  <si>
+    <t>the notice</t>
+  </si>
+  <si>
+    <t>the resident</t>
+  </si>
+  <si>
+    <t>the renovation</t>
+  </si>
+  <si>
+    <t>the elevator system</t>
+  </si>
+  <si>
+    <t>the elevator</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>detailed</t>
+  </si>
+  <si>
+    <t>cover letter / letter / notice</t>
+  </si>
+  <si>
+    <t>inconvenience</t>
+  </si>
+  <si>
+    <t>to ensure security</t>
+  </si>
+  <si>
+    <t>to lock</t>
+  </si>
+  <si>
+    <t>the windowsill</t>
+  </si>
+  <si>
+    <t>the emergency</t>
+  </si>
+  <si>
+    <t>technical failure</t>
+  </si>
+  <si>
+    <t>to be available / present</t>
+  </si>
+  <si>
+    <t>to invoice / put in an invoice</t>
+  </si>
+  <si>
+    <t>specified</t>
+  </si>
+  <si>
+    <t>angegebenen / angegebene</t>
+  </si>
+  <si>
+    <t>abgeben</t>
+  </si>
+  <si>
+    <t>to submit</t>
+  </si>
+  <si>
+    <t>trustworthy</t>
+  </si>
+  <si>
+    <t>of legal age</t>
+  </si>
+  <si>
+    <t>to grant access</t>
+  </si>
+  <si>
+    <t>to send</t>
+  </si>
+  <si>
+    <t>opening hours</t>
+  </si>
+  <si>
+    <t>or similar</t>
+  </si>
+  <si>
+    <t>in which case…</t>
+  </si>
+  <si>
+    <t>if someone were asking me, I would not use the word</t>
+  </si>
+  <si>
+    <t>…spricht uns besonders an</t>
+  </si>
+  <si>
+    <r>
+      <t>…haben wir / habe ich die M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>öglichkeit…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ür…wünschen wir uns…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ich / Wir k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>önnen uns vorstellen, …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wir h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ätten gerne…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Au</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>βerdem…</t>
+    </r>
+  </si>
+  <si>
+    <t>Ich/Wir finden… gut, weil/da…</t>
+  </si>
+  <si>
+    <t>Besonders wichtig ist mir/uns…</t>
+  </si>
+  <si>
+    <t>appeals to me / us</t>
+  </si>
+  <si>
+    <t>we have the possibility</t>
+  </si>
+  <si>
+    <t>for… we wish</t>
+  </si>
+  <si>
+    <t>we can imagine / picture</t>
+  </si>
+  <si>
+    <t>we would like…</t>
+  </si>
+  <si>
+    <t>besides that…</t>
+  </si>
+  <si>
+    <t>I find…good, because</t>
+  </si>
+  <si>
+    <t>It is particularly important to us…</t>
+  </si>
+  <si>
+    <t>den Zugang verwehren</t>
+  </si>
+  <si>
+    <t>to deny access</t>
+  </si>
+  <si>
+    <t>anwesend / abwesend</t>
+  </si>
+  <si>
+    <t>present / absent</t>
+  </si>
+  <si>
+    <r>
+      <t>den Schl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>üssel hinterlegen / abgeben</t>
+    </r>
+  </si>
+  <si>
+    <t>to leave the key</t>
+  </si>
+  <si>
     <r>
       <t>abschlie</t>
     </r>
@@ -3097,425 +3514,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (abgleschlossen)</t>
-    </r>
-  </si>
-  <si>
-    <t>der Fenstersims, -e / das Fensterbrett, -er</t>
-  </si>
-  <si>
-    <r>
-      <t>der Notfall (die Notf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>älle) (+ vorliegen)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>die technische St</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>örung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, technische Störungen</t>
-    </r>
-  </si>
-  <si>
-    <t>vorliegen</t>
-  </si>
-  <si>
-    <t>in Rechnung stellen</t>
-  </si>
-  <si>
-    <r>
-      <t>vertrauensw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ü</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rdig</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>vollj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ährig</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>den Zugang gew</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hren</t>
-    </r>
-  </si>
-  <si>
-    <t>verschicken / schicken</t>
-  </si>
-  <si>
-    <r>
-      <t>die Gesch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ftszeit, -en</t>
-    </r>
-  </si>
-  <si>
-    <t>der Unfall</t>
-  </si>
-  <si>
-    <t>der Vorfall</t>
-  </si>
-  <si>
-    <t>der Zufall</t>
-  </si>
-  <si>
-    <t>accident</t>
-  </si>
-  <si>
-    <t>incident</t>
-  </si>
-  <si>
-    <t>randomness / chance / coincidence</t>
-  </si>
-  <si>
-    <t>der Ausfall</t>
-  </si>
-  <si>
-    <t>exception</t>
-  </si>
-  <si>
-    <r>
-      <t>o.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (oder Ähnliches)</t>
-    </r>
-  </si>
-  <si>
-    <t>ggf (gegebenfalls)</t>
-  </si>
-  <si>
-    <r>
-      <t>Wenn man mich fragen w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ürde, würde ich das Wort nicht verwenden.</t>
-    </r>
-  </si>
-  <si>
-    <t>the notice</t>
-  </si>
-  <si>
-    <t>the resident</t>
-  </si>
-  <si>
-    <t>the renovation</t>
-  </si>
-  <si>
-    <t>the elevator system</t>
-  </si>
-  <si>
-    <t>the elevator</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>detailed</t>
-  </si>
-  <si>
-    <t>cover letter / letter / notice</t>
-  </si>
-  <si>
-    <t>inconvenience</t>
-  </si>
-  <si>
-    <t>to ensure security</t>
-  </si>
-  <si>
-    <t>to lock</t>
-  </si>
-  <si>
-    <t>the windowsill</t>
-  </si>
-  <si>
-    <t>the emergency</t>
-  </si>
-  <si>
-    <t>technical failure</t>
-  </si>
-  <si>
-    <t>to be available / present</t>
-  </si>
-  <si>
-    <t>to invoice / put in an invoice</t>
-  </si>
-  <si>
-    <t>specified</t>
-  </si>
-  <si>
-    <t>angegebenen / angegebene</t>
-  </si>
-  <si>
-    <t>abgeben</t>
-  </si>
-  <si>
-    <t>to submit</t>
-  </si>
-  <si>
-    <t>trustworthy</t>
-  </si>
-  <si>
-    <t>of legal age</t>
-  </si>
-  <si>
-    <t>to grant access</t>
-  </si>
-  <si>
-    <t>to send</t>
-  </si>
-  <si>
-    <t>opening hours</t>
-  </si>
-  <si>
-    <t>or similar</t>
-  </si>
-  <si>
-    <t>in which case…</t>
-  </si>
-  <si>
-    <t>if someone were asking me, I would not use the word</t>
-  </si>
-  <si>
-    <t>…spricht uns besonders an</t>
-  </si>
-  <si>
-    <r>
-      <t>…haben wir / habe ich die M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>öglichkeit…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ür…wünschen wir uns…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ich / Wir k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>önnen uns vorstellen, …</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Wir h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ätten gerne…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Au</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>βerdem…</t>
-    </r>
-  </si>
-  <si>
-    <t>Ich/Wir finden… gut, weil/da…</t>
-  </si>
-  <si>
-    <t>Besonders wichtig ist mir/uns…</t>
-  </si>
-  <si>
-    <t>appeals to me / us</t>
-  </si>
-  <si>
-    <t>we have the possibility</t>
-  </si>
-  <si>
-    <t>for… we wish</t>
-  </si>
-  <si>
-    <t>we can imagine / picture</t>
-  </si>
-  <si>
-    <t>we would like…</t>
-  </si>
-  <si>
-    <t>besides that…</t>
-  </si>
-  <si>
-    <t>I find…good, because</t>
-  </si>
-  <si>
-    <t>It is particularly important to us…</t>
-  </si>
-  <si>
-    <t>den Zugang verwehren</t>
-  </si>
-  <si>
-    <t>to deny access</t>
-  </si>
-  <si>
-    <t>anwesend / abwesend</t>
-  </si>
-  <si>
-    <t>present / absent</t>
-  </si>
-  <si>
-    <r>
-      <t>den Schl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>üssel hinterlegen / abgeben</t>
-    </r>
-  </si>
-  <si>
-    <t>to leave the key</t>
+      <t xml:space="preserve"> (abgleschlossen) / beenden</t>
+    </r>
+  </si>
+  <si>
+    <t>das Miethaus, "-er</t>
+  </si>
+  <si>
+    <t>das Mehrfamilienhaus</t>
+  </si>
+  <si>
+    <t>die Eigentumswohnung</t>
+  </si>
+  <si>
+    <t>die Hausverwaltung</t>
+  </si>
+  <si>
+    <t>die Wohnungsagentur</t>
+  </si>
+  <si>
+    <t>der Eigentumer</t>
+  </si>
+  <si>
+    <t>der Burgermeistering von Paris</t>
+  </si>
+  <si>
+    <t>die Innenstadt -&gt; in der Innenstadt</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>the rental house</t>
+  </si>
+  <si>
+    <t>multifamily residential</t>
+  </si>
+  <si>
+    <t>owner-occupied flat</t>
+  </si>
+  <si>
+    <t>the property management</t>
+  </si>
+  <si>
+    <t>the rental agency</t>
+  </si>
+  <si>
+    <t>the owner</t>
+  </si>
+  <si>
+    <t>the mayor of Paris</t>
+  </si>
+  <si>
+    <t>the city center</t>
+  </si>
+  <si>
+    <t>abschlieβen (abgeschlossen) / beenden</t>
+  </si>
+  <si>
+    <t>to occur</t>
+  </si>
+  <si>
+    <t>to finish</t>
+  </si>
+  <si>
+    <t>verschicken</t>
+  </si>
+  <si>
+    <t>to send (something)</t>
+  </si>
+  <si>
+    <t>to send (to someone)</t>
   </si>
 </sst>
 </file>
@@ -3856,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,7 +8231,7 @@
         <v>542</v>
       </c>
       <c r="B253" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C253" s="1">
         <v>44657</v>
@@ -8179,7 +8248,7 @@
         <v>543</v>
       </c>
       <c r="B254" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C254" s="1">
         <v>44657</v>
@@ -8196,7 +8265,7 @@
         <v>544</v>
       </c>
       <c r="B255" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C255" s="1">
         <v>44657</v>
@@ -8213,7 +8282,7 @@
         <v>545</v>
       </c>
       <c r="B256" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C256" s="1">
         <v>44657</v>
@@ -8230,7 +8299,7 @@
         <v>546</v>
       </c>
       <c r="B257" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C257" s="1">
         <v>44657</v>
@@ -8247,7 +8316,7 @@
         <v>547</v>
       </c>
       <c r="B258" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C258" s="1">
         <v>44657</v>
@@ -8264,7 +8333,7 @@
         <v>548</v>
       </c>
       <c r="B259" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C259" s="1">
         <v>44657</v>
@@ -8281,7 +8350,7 @@
         <v>549</v>
       </c>
       <c r="B260" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C260" s="1">
         <v>44657</v>
@@ -8298,7 +8367,7 @@
         <v>550</v>
       </c>
       <c r="B261" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C261" s="1">
         <v>44657</v>
@@ -8315,7 +8384,7 @@
         <v>551</v>
       </c>
       <c r="B262" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C262" s="1">
         <v>44657</v>
@@ -8329,10 +8398,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="B263" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C263" s="1">
         <v>44657</v>
@@ -8346,10 +8415,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B264" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C264" s="1">
         <v>44657</v>
@@ -8363,10 +8432,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B265" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C265" s="1">
         <v>44657</v>
@@ -8380,10 +8449,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B266" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C266" s="1">
         <v>44657</v>
@@ -8397,10 +8466,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B267" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C267" s="1">
         <v>44657</v>
@@ -8414,10 +8483,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>619</v>
+      </c>
+      <c r="B268" t="s">
         <v>620</v>
-      </c>
-      <c r="B268" t="s">
-        <v>621</v>
       </c>
       <c r="C268" s="1">
         <v>44657</v>
@@ -8431,10 +8500,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>621</v>
+      </c>
+      <c r="B269" t="s">
         <v>622</v>
-      </c>
-      <c r="B269" t="s">
-        <v>623</v>
       </c>
       <c r="C269" s="1">
         <v>44657</v>
@@ -8448,10 +8517,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B270" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C270" s="1">
         <v>44657</v>
@@ -8465,10 +8534,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B271" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C271" s="1">
         <v>44657</v>
@@ -8482,10 +8551,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>591</v>
+      </c>
+      <c r="B272" t="s">
         <v>592</v>
-      </c>
-      <c r="B272" t="s">
-        <v>593</v>
       </c>
       <c r="C272" s="1">
         <v>44657</v>
@@ -8499,10 +8568,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B273" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C273" s="1">
         <v>44657</v>
@@ -8516,10 +8585,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B274" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C274" s="1">
         <v>44657</v>
@@ -8533,10 +8602,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B275" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C275" s="1">
         <v>44657</v>
@@ -8550,10 +8619,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>617</v>
+      </c>
+      <c r="B276" t="s">
         <v>618</v>
-      </c>
-      <c r="B276" t="s">
-        <v>619</v>
       </c>
       <c r="C276" s="1">
         <v>44657</v>
@@ -8567,10 +8636,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B277" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C277" s="1">
         <v>44657</v>
@@ -8584,10 +8653,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B278" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C278" s="1">
         <v>44657</v>
@@ -8601,10 +8670,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B279" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C279" s="1">
         <v>44657</v>
@@ -8618,10 +8687,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B280" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C280" s="1">
         <v>44657</v>
@@ -8635,10 +8704,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B281" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C281" s="1">
         <v>44657</v>
@@ -8652,10 +8721,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>568</v>
+      </c>
+      <c r="B282" t="s">
         <v>569</v>
-      </c>
-      <c r="B282" t="s">
-        <v>570</v>
       </c>
       <c r="C282" s="1">
         <v>44657</v>
@@ -8669,10 +8738,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B283" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C283" s="1">
         <v>44657</v>
@@ -8686,10 +8755,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B284" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C284" s="1">
         <v>44657</v>
@@ -8703,10 +8772,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B285" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C285" s="1">
         <v>44657</v>
@@ -8720,10 +8789,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B286" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C286" s="1">
         <v>44657</v>
@@ -8737,10 +8806,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B287" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C287" s="1">
         <v>44657</v>
@@ -8754,10 +8823,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B288" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C288" s="1">
         <v>44657</v>
@@ -8771,10 +8840,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B289" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C289" s="1">
         <v>44657</v>
@@ -8788,10 +8857,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B290" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C290" s="1">
         <v>44657</v>
@@ -8805,10 +8874,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B291" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C291" s="1">
         <v>44657</v>
@@ -8822,10 +8891,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B292" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C292" s="1">
         <v>44657</v>
@@ -8839,10 +8908,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B293" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C293" s="1">
         <v>44657</v>
@@ -8852,6 +8921,210 @@
       </c>
       <c r="E293" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>624</v>
+      </c>
+      <c r="B294" t="s">
+        <v>633</v>
+      </c>
+      <c r="C294" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D294">
+        <v>11</v>
+      </c>
+      <c r="E294" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>625</v>
+      </c>
+      <c r="B295" t="s">
+        <v>634</v>
+      </c>
+      <c r="C295" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D295">
+        <v>11</v>
+      </c>
+      <c r="E295" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>626</v>
+      </c>
+      <c r="B296" t="s">
+        <v>635</v>
+      </c>
+      <c r="C296" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D296">
+        <v>11</v>
+      </c>
+      <c r="E296" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>627</v>
+      </c>
+      <c r="B297" t="s">
+        <v>636</v>
+      </c>
+      <c r="C297" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D297">
+        <v>11</v>
+      </c>
+      <c r="E297" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>628</v>
+      </c>
+      <c r="B298" t="s">
+        <v>637</v>
+      </c>
+      <c r="C298" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D298">
+        <v>11</v>
+      </c>
+      <c r="E298" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>629</v>
+      </c>
+      <c r="B299" t="s">
+        <v>638</v>
+      </c>
+      <c r="C299" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D299">
+        <v>11</v>
+      </c>
+      <c r="E299" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>630</v>
+      </c>
+      <c r="B300" t="s">
+        <v>639</v>
+      </c>
+      <c r="C300" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>631</v>
+      </c>
+      <c r="B301" t="s">
+        <v>640</v>
+      </c>
+      <c r="C301" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D301">
+        <v>11</v>
+      </c>
+      <c r="E301" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>641</v>
+      </c>
+      <c r="B302" t="s">
+        <v>643</v>
+      </c>
+      <c r="C302" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D302">
+        <v>11</v>
+      </c>
+      <c r="E302" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>555</v>
+      </c>
+      <c r="B303" t="s">
+        <v>642</v>
+      </c>
+      <c r="C303" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D303">
+        <v>11</v>
+      </c>
+      <c r="E303" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>644</v>
+      </c>
+      <c r="B304" t="s">
+        <v>645</v>
+      </c>
+      <c r="C304" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D304">
+        <v>11</v>
+      </c>
+      <c r="E304" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>632</v>
+      </c>
+      <c r="B305" t="s">
+        <v>646</v>
+      </c>
+      <c r="C305" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D305">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
